--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_15_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1006245.870744116</v>
+        <v>-1006923.691424388</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313298.4515052313</v>
+        <v>313298.4515052311</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058539</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="D11" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.21360886079827</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.88999934163199</v>
+        <v>32.88999934163205</v>
       </c>
       <c r="T11" t="n">
-        <v>28.0364332929322</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>55.7672073838573</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>46.57458928482666</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>94.67950460670812</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>18.54943395435253</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>20.56530653072794</v>
+        <v>20.565306530728</v>
       </c>
       <c r="U12" t="n">
-        <v>42.84521610603974</v>
+        <v>42.84521610603979</v>
       </c>
       <c r="V12" t="n">
-        <v>46.26644524054751</v>
+        <v>46.26644524054757</v>
       </c>
       <c r="W12" t="n">
-        <v>72.32210790215686</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="X12" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.00181045917088</v>
+        <v>113.7367661944147</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.831062059420487</v>
+        <v>8.831062059420544</v>
       </c>
       <c r="S13" t="n">
-        <v>40.9716860187126</v>
+        <v>40.97168601871266</v>
       </c>
       <c r="T13" t="n">
-        <v>29.35851686199503</v>
+        <v>29.35851686199508</v>
       </c>
       <c r="U13" t="n">
-        <v>94.27381875013462</v>
+        <v>94.27381875013468</v>
       </c>
       <c r="V13" t="n">
-        <v>50.72653950959517</v>
+        <v>50.72653950959523</v>
       </c>
       <c r="W13" t="n">
-        <v>95.92823141448059</v>
+        <v>95.92823141448065</v>
       </c>
       <c r="X13" t="n">
-        <v>27.5369797333878</v>
+        <v>27.53697973338785</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.75879713931369</v>
+        <v>22.75879713931374</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>66.64307131377578</v>
       </c>
       <c r="H14" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>46.21360886079826</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.88999934163199</v>
+        <v>32.88999934163205</v>
       </c>
       <c r="T14" t="n">
-        <v>28.0364332929322</v>
+        <v>28.03643329293227</v>
       </c>
       <c r="U14" t="n">
-        <v>46.57458928482657</v>
+        <v>55.76720738385731</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>111.5317073420756</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>110.7863191979332</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.56530653072794</v>
+        <v>20.565306530728</v>
       </c>
       <c r="U15" t="n">
-        <v>122.0492982736046</v>
+        <v>42.84521610603979</v>
       </c>
       <c r="V15" t="n">
-        <v>46.26644524054751</v>
+        <v>46.26644524054757</v>
       </c>
       <c r="W15" t="n">
-        <v>122.0492982736046</v>
+        <v>72.32210790215692</v>
       </c>
       <c r="X15" t="n">
-        <v>22.93043876461587</v>
+        <v>22.93043876461593</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.00181045917088</v>
+        <v>29.00181045917094</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.831062059420487</v>
+        <v>8.831062059420544</v>
       </c>
       <c r="S16" t="n">
-        <v>40.9716860187126</v>
+        <v>40.97168601871266</v>
       </c>
       <c r="T16" t="n">
-        <v>29.35851686199503</v>
+        <v>29.35851686199508</v>
       </c>
       <c r="U16" t="n">
-        <v>94.27381875013462</v>
+        <v>94.27381875013468</v>
       </c>
       <c r="V16" t="n">
-        <v>50.72653950959517</v>
+        <v>50.72653950959523</v>
       </c>
       <c r="W16" t="n">
-        <v>95.92823141448059</v>
+        <v>95.92823141448065</v>
       </c>
       <c r="X16" t="n">
-        <v>27.5369797333878</v>
+        <v>27.53697973338785</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.75879713931369</v>
+        <v>22.75879713931374</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>82.31946603086146</v>
       </c>
       <c r="G17" t="n">
-        <v>97.94765892927444</v>
+        <v>97.94765892927441</v>
       </c>
       <c r="H17" t="n">
-        <v>26.0317220423338</v>
+        <v>26.03172204233382</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>107.5010219193909</v>
+        <v>64.31525006275673</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="W18" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.20745676868142</v>
+        <v>53.20745676868131</v>
       </c>
       <c r="C20" t="n">
-        <v>29.32571377202692</v>
+        <v>29.3257137720268</v>
       </c>
       <c r="D20" t="n">
-        <v>16.89237603307538</v>
+        <v>16.89237603307527</v>
       </c>
       <c r="E20" t="n">
-        <v>50.59912845248425</v>
+        <v>50.59912845248414</v>
       </c>
       <c r="F20" t="n">
-        <v>82.31946603086158</v>
+        <v>82.31946603086146</v>
       </c>
       <c r="G20" t="n">
-        <v>97.94765892927455</v>
+        <v>97.94765892927441</v>
       </c>
       <c r="H20" t="n">
-        <v>26.03172204233391</v>
+        <v>26.0317220423338</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>17.01668021661499</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="X20" t="n">
-        <v>38.90293068555422</v>
+        <v>38.90293068555411</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.40578380929799</v>
+        <v>61.40578380929878</v>
       </c>
     </row>
     <row r="21">
@@ -2160,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>49.43169076287314</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>107.5010219193909</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.20745676868142</v>
+        <v>53.20745676868131</v>
       </c>
       <c r="C23" t="n">
-        <v>29.32571377202692</v>
+        <v>29.3257137720268</v>
       </c>
       <c r="D23" t="n">
-        <v>16.89237603307538</v>
+        <v>16.89237603307527</v>
       </c>
       <c r="E23" t="n">
-        <v>50.59912845248425</v>
+        <v>50.59912845248414</v>
       </c>
       <c r="F23" t="n">
-        <v>82.31946603086158</v>
+        <v>82.31946603086146</v>
       </c>
       <c r="G23" t="n">
-        <v>97.94765892927455</v>
+        <v>97.94765892927441</v>
       </c>
       <c r="H23" t="n">
-        <v>26.03172204233391</v>
+        <v>26.03172204233382</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>17.01668021661499</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="X23" t="n">
-        <v>38.90293068555422</v>
+        <v>38.90293068555411</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.40578380929799</v>
+        <v>61.40578380929787</v>
       </c>
     </row>
     <row r="24">
@@ -2397,28 +2397,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>122.0492982736048</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>122.0492982736048</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>122.0492982736048</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.335282945669953</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>107.5010219193909</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
     </row>
     <row r="25">
@@ -2561,19 +2561,19 @@
         <v>124.855002394087</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5617548134958</v>
+        <v>158.5617548134959</v>
       </c>
       <c r="F26" t="n">
         <v>190.2820923918732</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9102852902861</v>
+        <v>205.9102852902862</v>
       </c>
       <c r="H26" t="n">
         <v>133.9943484033455</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67892728751264</v>
+        <v>27.67892728751266</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.3553177683464</v>
+        <v>14.35531776834642</v>
       </c>
       <c r="T26" t="n">
-        <v>9.50175171964662</v>
+        <v>9.501751719646649</v>
       </c>
       <c r="U26" t="n">
-        <v>37.23252581057167</v>
+        <v>37.2325258105717</v>
       </c>
       <c r="V26" t="n">
         <v>107.9626263610117</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>110.9006978173105</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>126.7406110696932</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.030624957442361</v>
+        <v>2.03062495744239</v>
       </c>
       <c r="U27" t="n">
-        <v>24.31053453275416</v>
+        <v>24.31053453275419</v>
       </c>
       <c r="V27" t="n">
-        <v>27.73176366726193</v>
+        <v>27.73176366726196</v>
       </c>
       <c r="W27" t="n">
-        <v>53.78742632887128</v>
+        <v>53.78742632887131</v>
       </c>
       <c r="X27" t="n">
-        <v>4.39575719133029</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.4671288858853</v>
+        <v>10.46712888588533</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43700444542702</v>
+        <v>22.43700444542705</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82383528870945</v>
+        <v>10.82383528870947</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73913717684904</v>
+        <v>75.73913717684907</v>
       </c>
       <c r="V28" t="n">
-        <v>32.19185793630959</v>
+        <v>32.19185793630962</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39354984119501</v>
+        <v>77.39354984119504</v>
       </c>
       <c r="X28" t="n">
-        <v>9.002298160102214</v>
+        <v>9.002298160102242</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.224115566028104</v>
+        <v>4.224115566028132</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>124.855002394087</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5617548134958</v>
+        <v>158.5617548134959</v>
       </c>
       <c r="F29" t="n">
         <v>190.2820923918732</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9102852902861</v>
+        <v>205.9102852902862</v>
       </c>
       <c r="H29" t="n">
         <v>133.9943484033455</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67892728751262</v>
+        <v>27.67892728751266</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35531776834641</v>
+        <v>14.35531776834642</v>
       </c>
       <c r="T29" t="n">
-        <v>9.501751719646627</v>
+        <v>9.501751719646649</v>
       </c>
       <c r="U29" t="n">
-        <v>37.23252581057167</v>
+        <v>37.2325258105717</v>
       </c>
       <c r="V29" t="n">
         <v>107.9626263610117</v>
@@ -2883,16 +2883,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>82.82726844180561</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.030624957442361</v>
+        <v>2.03062495744239</v>
       </c>
       <c r="U30" t="n">
-        <v>24.31053453275416</v>
+        <v>24.31053453275419</v>
       </c>
       <c r="V30" t="n">
-        <v>27.73176366726193</v>
+        <v>155.6944436111937</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78742632887128</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>4.395757191330318</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>10.46712888588533</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43700444542702</v>
+        <v>22.43700444542705</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82383528870945</v>
+        <v>10.82383528870947</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73913717684904</v>
+        <v>75.73913717684907</v>
       </c>
       <c r="V31" t="n">
-        <v>32.19185793630959</v>
+        <v>32.19185793630962</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39354984119501</v>
+        <v>77.39354984119504</v>
       </c>
       <c r="X31" t="n">
-        <v>9.002298160102214</v>
+        <v>9.002298160102242</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.224115566028104</v>
+        <v>4.224115566028132</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3032,22 @@
         <v>137.2883401330385</v>
       </c>
       <c r="D32" t="n">
-        <v>124.8550023940869</v>
+        <v>124.855002394087</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5617548134958</v>
+        <v>158.5617548134959</v>
       </c>
       <c r="F32" t="n">
-        <v>190.2820923918731</v>
+        <v>190.2820923918732</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9102852902861</v>
+        <v>205.9102852902862</v>
       </c>
       <c r="H32" t="n">
         <v>133.9943484033455</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67892728751261</v>
+        <v>27.67892728751266</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35531776834637</v>
+        <v>14.35531776834642</v>
       </c>
       <c r="T32" t="n">
-        <v>9.501751719646592</v>
+        <v>9.501751719646649</v>
       </c>
       <c r="U32" t="n">
-        <v>37.23252581057164</v>
+        <v>37.2325258105717</v>
       </c>
       <c r="V32" t="n">
         <v>107.9626263610117</v>
       </c>
       <c r="W32" t="n">
-        <v>124.9793065776265</v>
+        <v>124.9793065776266</v>
       </c>
       <c r="X32" t="n">
         <v>146.8655570465658</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.3684101703095</v>
+        <v>169.3684101703096</v>
       </c>
     </row>
     <row r="33">
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>37.16177228556742</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.030624957442333</v>
+        <v>2.03062495744239</v>
       </c>
       <c r="U33" t="n">
-        <v>24.31053453275413</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V33" t="n">
-        <v>27.7317636672619</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.78742632887125</v>
+        <v>262.2947706485114</v>
       </c>
       <c r="X33" t="n">
-        <v>4.395757191330262</v>
+        <v>4.395757191330318</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46712888588527</v>
+        <v>10.46712888588533</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.437004445427</v>
+        <v>22.43700444542705</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82383528870942</v>
+        <v>10.82383528870947</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73913717684901</v>
+        <v>75.73913717684907</v>
       </c>
       <c r="V34" t="n">
-        <v>32.19185793630956</v>
+        <v>32.19185793630962</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39354984119498</v>
+        <v>77.39354984119504</v>
       </c>
       <c r="X34" t="n">
-        <v>9.002298160102185</v>
+        <v>9.002298160102242</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.224115566028075</v>
+        <v>4.224115566028132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.9940064659682</v>
+        <v>125.9940064659681</v>
       </c>
       <c r="C35" t="n">
-        <v>102.1122634693137</v>
+        <v>102.1122634693136</v>
       </c>
       <c r="D35" t="n">
-        <v>89.67892573036212</v>
+        <v>89.67892573036207</v>
       </c>
       <c r="E35" t="n">
-        <v>123.385678149771</v>
+        <v>123.3856781497709</v>
       </c>
       <c r="F35" t="n">
         <v>155.1060157281483</v>
       </c>
       <c r="G35" t="n">
-        <v>170.7342086265613</v>
+        <v>170.7342086265612</v>
       </c>
       <c r="H35" t="n">
-        <v>98.81827173962066</v>
+        <v>98.8182717396206</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.056449146846822</v>
+        <v>2.056449146846766</v>
       </c>
       <c r="V35" t="n">
-        <v>72.78654969728686</v>
+        <v>72.7865496972868</v>
       </c>
       <c r="W35" t="n">
-        <v>89.80322991390173</v>
+        <v>89.80322991390167</v>
       </c>
       <c r="X35" t="n">
-        <v>111.689480382841</v>
+        <v>111.6894803828409</v>
       </c>
       <c r="Y35" t="n">
         <v>134.1923335065847</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>49.66311022895813</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>197.1735340676507</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.56306051312419</v>
+        <v>40.56306051312414</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>42.21747317747017</v>
+        <v>42.21747317747011</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.9940064659682</v>
+        <v>125.9940064659681</v>
       </c>
       <c r="C38" t="n">
-        <v>102.1122634693137</v>
+        <v>102.1122634693136</v>
       </c>
       <c r="D38" t="n">
-        <v>89.67892573036212</v>
+        <v>89.67892573036207</v>
       </c>
       <c r="E38" t="n">
-        <v>123.385678149771</v>
+        <v>123.3856781497709</v>
       </c>
       <c r="F38" t="n">
         <v>155.1060157281483</v>
       </c>
       <c r="G38" t="n">
-        <v>170.7342086265613</v>
+        <v>170.7342086265612</v>
       </c>
       <c r="H38" t="n">
-        <v>98.81827173962066</v>
+        <v>98.8182717396206</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.056449146846822</v>
+        <v>2.056449146846766</v>
       </c>
       <c r="V38" t="n">
-        <v>72.78654969728686</v>
+        <v>72.7865496972868</v>
       </c>
       <c r="W38" t="n">
-        <v>89.80322991390173</v>
+        <v>89.80322991390167</v>
       </c>
       <c r="X38" t="n">
-        <v>111.689480382841</v>
+        <v>111.6894803828409</v>
       </c>
       <c r="Y38" t="n">
         <v>134.1923335065847</v>
@@ -3585,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>18.61134966514643</v>
+        <v>220.4612231050845</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>166.804736882539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.56306051312419</v>
+        <v>40.56306051312414</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>42.21747317747017</v>
+        <v>42.21747317747011</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.553598523059058</v>
+        <v>9.553598523059065</v>
       </c>
       <c r="V41" t="n">
         <v>80.28369907349909</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>126.0388285006735</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>92.44235558251681</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0.05283637974932276</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>26.10849904135867</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>29.69549650778518</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0.05283637974932276</v>
       </c>
       <c r="W45" t="n">
         <v>26.10849904135867</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>60.15844409913977</v>
       </c>
     </row>
     <row r="46">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256.3281827984632</v>
+        <v>303.0085957891688</v>
       </c>
       <c r="C11" t="n">
-        <v>256.3281827984632</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="D11" t="n">
-        <v>133.0460633301758</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="E11" t="n">
-        <v>133.0460633301758</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="F11" t="n">
-        <v>133.0460633301758</v>
+        <v>179.7264763208813</v>
       </c>
       <c r="G11" t="n">
-        <v>9.763943861888364</v>
+        <v>56.4443568525937</v>
       </c>
       <c r="H11" t="n">
-        <v>9.763943861888364</v>
+        <v>56.4443568525937</v>
       </c>
       <c r="I11" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J11" t="n">
-        <v>9.763943861888364</v>
+        <v>127.09041603444</v>
       </c>
       <c r="K11" t="n">
-        <v>54.24929962315336</v>
+        <v>138.8943684648422</v>
       </c>
       <c r="L11" t="n">
-        <v>102.6465501101407</v>
+        <v>187.2916189518295</v>
       </c>
       <c r="M11" t="n">
-        <v>185.3737761132576</v>
+        <v>270.0188449549465</v>
       </c>
       <c r="N11" t="n">
-        <v>262.5971791047625</v>
+        <v>347.2422479464514</v>
       </c>
       <c r="O11" t="n">
-        <v>383.425984395631</v>
+        <v>383.2527588456315</v>
       </c>
       <c r="P11" t="n">
-        <v>383.425984395631</v>
+        <v>383.2527588456315</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.1971930944183</v>
+        <v>488.0239675444187</v>
       </c>
       <c r="R11" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S11" t="n">
-        <v>454.9749715372142</v>
+        <v>454.9749715372146</v>
       </c>
       <c r="T11" t="n">
-        <v>426.6553419483937</v>
+        <v>454.9749715372146</v>
       </c>
       <c r="U11" t="n">
-        <v>426.6553419483937</v>
+        <v>398.6444590282678</v>
       </c>
       <c r="V11" t="n">
-        <v>426.6553419483937</v>
+        <v>398.6444590282678</v>
       </c>
       <c r="W11" t="n">
-        <v>379.6103022667506</v>
+        <v>398.6444590282678</v>
       </c>
       <c r="X11" t="n">
-        <v>256.3281827984632</v>
+        <v>398.6444590282678</v>
       </c>
       <c r="Y11" t="n">
-        <v>256.3281827984632</v>
+        <v>303.0085957891688</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>151.7828653042693</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C12" t="n">
-        <v>151.7828653042693</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D12" t="n">
-        <v>28.50074583598183</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E12" t="n">
-        <v>28.50074583598183</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F12" t="n">
-        <v>28.50074583598183</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J12" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K12" t="n">
-        <v>43.26205739618867</v>
+        <v>48.64509028167977</v>
       </c>
       <c r="L12" t="n">
-        <v>161.829099323694</v>
+        <v>167.2121322091851</v>
       </c>
       <c r="M12" t="n">
-        <v>282.6579046145625</v>
+        <v>282.6579046145629</v>
       </c>
       <c r="N12" t="n">
-        <v>282.6579046145625</v>
+        <v>282.6579046145629</v>
       </c>
       <c r="O12" t="n">
-        <v>403.486709905431</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P12" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q12" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="R12" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="S12" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="T12" t="n">
-        <v>467.4241561946931</v>
+        <v>461.2255843550312</v>
       </c>
       <c r="U12" t="n">
-        <v>424.1461601279863</v>
+        <v>417.9475882883244</v>
       </c>
       <c r="V12" t="n">
-        <v>377.4123770567261</v>
+        <v>371.2138052170642</v>
       </c>
       <c r="W12" t="n">
-        <v>304.3597428121233</v>
+        <v>247.9316857487766</v>
       </c>
       <c r="X12" t="n">
-        <v>181.0776233438358</v>
+        <v>124.6495662804891</v>
       </c>
       <c r="Y12" t="n">
-        <v>151.7828653042693</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.36184332167614</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C13" t="n">
-        <v>26.36184332167614</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D13" t="n">
-        <v>26.36184332167614</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E13" t="n">
-        <v>26.36184332167614</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F13" t="n">
-        <v>26.36184332167614</v>
+        <v>64.66498138373233</v>
       </c>
       <c r="G13" t="n">
-        <v>26.36184332167614</v>
+        <v>90.09463028986653</v>
       </c>
       <c r="H13" t="n">
-        <v>26.36184332167614</v>
+        <v>118.4094941867529</v>
       </c>
       <c r="I13" t="n">
-        <v>26.36184332167614</v>
+        <v>147.7870082523647</v>
       </c>
       <c r="J13" t="n">
-        <v>100.1001799624698</v>
+        <v>221.5253448931583</v>
       </c>
       <c r="K13" t="n">
-        <v>142.233233772111</v>
+        <v>221.5253448931583</v>
       </c>
       <c r="L13" t="n">
-        <v>142.233233772111</v>
+        <v>221.5253448931583</v>
       </c>
       <c r="M13" t="n">
-        <v>142.233233772111</v>
+        <v>221.5253448931583</v>
       </c>
       <c r="N13" t="n">
-        <v>263.0620390629795</v>
+        <v>221.5253448931583</v>
       </c>
       <c r="O13" t="n">
-        <v>263.0620390629795</v>
+        <v>221.5253448931583</v>
       </c>
       <c r="P13" t="n">
-        <v>383.890844353848</v>
+        <v>316.9979918744498</v>
       </c>
       <c r="Q13" t="n">
-        <v>383.890844353848</v>
+        <v>383.8908443538484</v>
       </c>
       <c r="R13" t="n">
-        <v>374.9705796473626</v>
+        <v>374.970579647363</v>
       </c>
       <c r="S13" t="n">
-        <v>333.5850382143196</v>
+        <v>333.5850382143199</v>
       </c>
       <c r="T13" t="n">
-        <v>303.9299706769509</v>
+        <v>303.9299706769511</v>
       </c>
       <c r="U13" t="n">
-        <v>208.7038911313603</v>
+        <v>208.7038911313606</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4649623337895</v>
+        <v>157.4649623337896</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481916</v>
+        <v>60.56775888481928</v>
       </c>
       <c r="X13" t="n">
-        <v>32.7526278409931</v>
+        <v>32.75262784099317</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>379.6103022667506</v>
+        <v>370.3248294394473</v>
       </c>
       <c r="C14" t="n">
-        <v>256.3281827984632</v>
+        <v>370.3248294394473</v>
       </c>
       <c r="D14" t="n">
-        <v>133.0460633301758</v>
+        <v>247.0427099711598</v>
       </c>
       <c r="E14" t="n">
-        <v>133.0460633301758</v>
+        <v>123.7605905028722</v>
       </c>
       <c r="F14" t="n">
-        <v>133.0460633301758</v>
+        <v>123.7605905028722</v>
       </c>
       <c r="G14" t="n">
-        <v>133.0460633301758</v>
+        <v>56.44435685259369</v>
       </c>
       <c r="H14" t="n">
-        <v>9.763943861888364</v>
+        <v>56.44435685259369</v>
       </c>
       <c r="I14" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J14" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K14" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L14" t="n">
-        <v>130.5927491527569</v>
+        <v>130.592749152757</v>
       </c>
       <c r="M14" t="n">
-        <v>213.3199751558738</v>
+        <v>213.3199751558739</v>
       </c>
       <c r="N14" t="n">
-        <v>290.5433781473787</v>
+        <v>334.1487804467425</v>
       </c>
       <c r="O14" t="n">
-        <v>367.3683878035498</v>
+        <v>370.1592913459227</v>
       </c>
       <c r="P14" t="n">
-        <v>488.1971930944183</v>
+        <v>383.4259843956315</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R14" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S14" t="n">
-        <v>454.9749715372142</v>
+        <v>454.9749715372146</v>
       </c>
       <c r="T14" t="n">
-        <v>426.6553419483936</v>
+        <v>426.6553419483941</v>
       </c>
       <c r="U14" t="n">
-        <v>379.6103022667506</v>
+        <v>370.3248294394473</v>
       </c>
       <c r="V14" t="n">
-        <v>379.6103022667506</v>
+        <v>370.3248294394473</v>
       </c>
       <c r="W14" t="n">
-        <v>379.6103022667506</v>
+        <v>370.3248294394473</v>
       </c>
       <c r="X14" t="n">
-        <v>379.6103022667506</v>
+        <v>370.3248294394473</v>
       </c>
       <c r="Y14" t="n">
-        <v>379.6103022667506</v>
+        <v>370.3248294394473</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.763943861888364</v>
+        <v>122.4222341064092</v>
       </c>
       <c r="C15" t="n">
-        <v>9.763943861888364</v>
+        <v>122.4222341064092</v>
       </c>
       <c r="D15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J15" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K15" t="n">
-        <v>48.64509028167976</v>
+        <v>48.64509028167977</v>
       </c>
       <c r="L15" t="n">
-        <v>48.64509028167976</v>
+        <v>167.2121322091851</v>
       </c>
       <c r="M15" t="n">
-        <v>161.829099323694</v>
+        <v>288.0409375000538</v>
       </c>
       <c r="N15" t="n">
-        <v>282.6579046145625</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="O15" t="n">
-        <v>403.486709905431</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P15" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q15" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="R15" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="S15" t="n">
-        <v>376.291820167213</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="T15" t="n">
-        <v>355.5187832674878</v>
+        <v>461.2255843550312</v>
       </c>
       <c r="U15" t="n">
-        <v>232.2366637992003</v>
+        <v>417.9475882883244</v>
       </c>
       <c r="V15" t="n">
-        <v>185.5028807279402</v>
+        <v>371.2138052170642</v>
       </c>
       <c r="W15" t="n">
-        <v>62.22076125965277</v>
+        <v>298.1611709724613</v>
       </c>
       <c r="X15" t="n">
-        <v>39.05870190145492</v>
+        <v>274.9991116142634</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.763943861888364</v>
+        <v>245.7043535746968</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.6681920622464</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C16" t="n">
-        <v>158.3142338181</v>
+        <v>37.40998561774188</v>
       </c>
       <c r="D16" t="n">
-        <v>207.0220609880025</v>
+        <v>37.40998561774188</v>
       </c>
       <c r="E16" t="n">
-        <v>259.201332106006</v>
+        <v>37.40998561774188</v>
       </c>
       <c r="F16" t="n">
-        <v>314.10236962785</v>
+        <v>37.40998561774188</v>
       </c>
       <c r="G16" t="n">
-        <v>339.5320185339842</v>
+        <v>62.83963452387609</v>
       </c>
       <c r="H16" t="n">
-        <v>367.8468824308707</v>
+        <v>62.83963452387609</v>
       </c>
       <c r="I16" t="n">
-        <v>367.8468824308707</v>
+        <v>75.34038129271254</v>
       </c>
       <c r="J16" t="n">
-        <v>441.5852190716643</v>
+        <v>75.34038129271254</v>
       </c>
       <c r="K16" t="n">
-        <v>441.5852190716643</v>
+        <v>75.34038129271254</v>
       </c>
       <c r="L16" t="n">
-        <v>488.1971930944183</v>
+        <v>196.1691865835812</v>
       </c>
       <c r="M16" t="n">
-        <v>488.1971930944183</v>
+        <v>196.1691865835812</v>
       </c>
       <c r="N16" t="n">
-        <v>488.1971930944183</v>
+        <v>196.1691865835812</v>
       </c>
       <c r="O16" t="n">
-        <v>488.1971930944183</v>
+        <v>196.1691865835812</v>
       </c>
       <c r="P16" t="n">
-        <v>488.1971930944183</v>
+        <v>316.9979918744498</v>
       </c>
       <c r="Q16" t="n">
-        <v>488.1971930944183</v>
+        <v>383.8908443538484</v>
       </c>
       <c r="R16" t="n">
-        <v>479.2769283879329</v>
+        <v>374.970579647363</v>
       </c>
       <c r="S16" t="n">
-        <v>437.8913869548899</v>
+        <v>333.5850382143199</v>
       </c>
       <c r="T16" t="n">
-        <v>408.2363194175211</v>
+        <v>303.9299706769511</v>
       </c>
       <c r="U16" t="n">
-        <v>313.0102398719306</v>
+        <v>208.7038911313606</v>
       </c>
       <c r="V16" t="n">
-        <v>261.7713110743597</v>
+        <v>157.4649623337896</v>
       </c>
       <c r="W16" t="n">
-        <v>164.8741076253894</v>
+        <v>60.56775888481928</v>
       </c>
       <c r="X16" t="n">
-        <v>137.0589765815633</v>
+        <v>32.75262784099317</v>
       </c>
       <c r="Y16" t="n">
-        <v>114.0702926024586</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589154</v>
+        <v>315.9417875589156</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3198544558581</v>
+        <v>286.3198544558584</v>
       </c>
       <c r="D17" t="n">
-        <v>269.2568483618427</v>
+        <v>269.2568483618429</v>
       </c>
       <c r="E17" t="n">
-        <v>218.1466176017577</v>
+        <v>218.146617601758</v>
       </c>
       <c r="F17" t="n">
-        <v>134.9956418130087</v>
+        <v>134.9956418130089</v>
       </c>
       <c r="G17" t="n">
-        <v>36.05861259151847</v>
+        <v>36.0586125915185</v>
       </c>
       <c r="H17" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I17" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J17" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K17" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L17" t="n">
         <v>58.16119434887568</v>
@@ -5537,28 +5537,28 @@
         <v>254.1223342426777</v>
       </c>
       <c r="R17" t="n">
-        <v>298.0496916927282</v>
+        <v>374.9511395335463</v>
       </c>
       <c r="S17" t="n">
-        <v>390.7209271994668</v>
+        <v>374.9511395335463</v>
       </c>
       <c r="T17" t="n">
-        <v>488.1971930944183</v>
+        <v>472.4274054284977</v>
       </c>
       <c r="U17" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="V17" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="W17" t="n">
-        <v>471.0086272190499</v>
+        <v>471.0086272190502</v>
       </c>
       <c r="X17" t="n">
-        <v>431.7127376376822</v>
+        <v>431.7127376376824</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.6866933858662</v>
+        <v>369.6866933858664</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>241.6329541578434</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="C18" t="n">
-        <v>241.6329541578434</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="D18" t="n">
-        <v>241.6329541578434</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="E18" t="n">
-        <v>241.6329541578434</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="F18" t="n">
-        <v>118.3508346895559</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="G18" t="n">
-        <v>9.763943861888364</v>
+        <v>293.7516027331793</v>
       </c>
       <c r="H18" t="n">
-        <v>9.763943861888364</v>
+        <v>170.4694832648917</v>
       </c>
       <c r="I18" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="J18" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K18" t="n">
-        <v>41.00029403282552</v>
+        <v>48.64509028167977</v>
       </c>
       <c r="L18" t="n">
-        <v>41.00029403282552</v>
+        <v>125.7107772218128</v>
       </c>
       <c r="M18" t="n">
-        <v>161.829099323694</v>
+        <v>246.5395825126815</v>
       </c>
       <c r="N18" t="n">
-        <v>282.6579046145625</v>
+        <v>367.3683878035501</v>
       </c>
       <c r="O18" t="n">
-        <v>403.486709905431</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="P18" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q18" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="R18" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="S18" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="T18" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="U18" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="V18" t="n">
-        <v>364.9150736261308</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="W18" t="n">
-        <v>241.6329541578434</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="X18" t="n">
-        <v>241.6329541578434</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="Y18" t="n">
-        <v>241.6329541578434</v>
+        <v>358.7165017864689</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="M19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="N19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="O19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="P19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="R19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="S19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="T19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="U19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="V19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="W19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="X19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="20">
@@ -5726,73 +5726,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.9417875589147</v>
+        <v>315.9417875589148</v>
       </c>
       <c r="C20" t="n">
-        <v>286.3198544558572</v>
+        <v>286.3198544558576</v>
       </c>
       <c r="D20" t="n">
-        <v>269.2568483618417</v>
+        <v>269.2568483618421</v>
       </c>
       <c r="E20" t="n">
-        <v>218.1466176017566</v>
+        <v>218.1466176017572</v>
       </c>
       <c r="F20" t="n">
-        <v>134.9956418130076</v>
+        <v>134.9956418130081</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05861259151858</v>
+        <v>36.05861259151848</v>
       </c>
       <c r="H20" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I20" t="n">
-        <v>9.763943861888364</v>
+        <v>89.24480594465247</v>
       </c>
       <c r="J20" t="n">
-        <v>9.763943861888364</v>
+        <v>89.24480594465247</v>
       </c>
       <c r="K20" t="n">
-        <v>76.3397372737422</v>
+        <v>89.24480594465247</v>
       </c>
       <c r="L20" t="n">
-        <v>124.7369877607295</v>
+        <v>137.6420564316398</v>
       </c>
       <c r="M20" t="n">
-        <v>207.4642137638464</v>
+        <v>220.3692824347567</v>
       </c>
       <c r="N20" t="n">
-        <v>284.6876167553513</v>
+        <v>297.5926854262616</v>
       </c>
       <c r="O20" t="n">
-        <v>320.6981276545315</v>
+        <v>333.6031963254418</v>
       </c>
       <c r="P20" t="n">
-        <v>320.6981276545315</v>
+        <v>333.6031963254418</v>
       </c>
       <c r="Q20" t="n">
-        <v>320.6981276545315</v>
+        <v>367.3683878035501</v>
       </c>
       <c r="R20" t="n">
-        <v>320.6981276545315</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S20" t="n">
-        <v>320.6981276545315</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T20" t="n">
-        <v>418.1743935494828</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="U20" t="n">
-        <v>488.1971930944184</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="V20" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="W20" t="n">
-        <v>471.0086272190497</v>
+        <v>471.0086272190503</v>
       </c>
       <c r="X20" t="n">
-        <v>431.7127376376818</v>
+        <v>431.7127376376825</v>
       </c>
       <c r="Y20" t="n">
         <v>369.6866933858656</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>133.0460633301758</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="C21" t="n">
-        <v>133.0460633301758</v>
+        <v>358.7165017864689</v>
       </c>
       <c r="D21" t="n">
-        <v>133.0460633301758</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="E21" t="n">
-        <v>133.0460633301758</v>
+        <v>235.4343823181814</v>
       </c>
       <c r="F21" t="n">
-        <v>9.763943861888364</v>
+        <v>112.1522628498938</v>
       </c>
       <c r="G21" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="H21" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="I21" t="n">
-        <v>9.763943861888364</v>
+        <v>62.22126207931488</v>
       </c>
       <c r="J21" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K21" t="n">
-        <v>48.64509028167976</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L21" t="n">
-        <v>167.2121322091851</v>
+        <v>41.00029403282564</v>
       </c>
       <c r="M21" t="n">
-        <v>246.5395825126812</v>
+        <v>161.8290993236943</v>
       </c>
       <c r="N21" t="n">
-        <v>367.3683878035498</v>
+        <v>282.6579046145629</v>
       </c>
       <c r="O21" t="n">
-        <v>488.1971930944183</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P21" t="n">
-        <v>488.1971930944183</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q21" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="R21" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="S21" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="T21" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="U21" t="n">
-        <v>488.1971930944183</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="V21" t="n">
-        <v>364.9150736261308</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="W21" t="n">
-        <v>364.9150736261308</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="X21" t="n">
-        <v>256.3281827984632</v>
+        <v>481.9986212547565</v>
       </c>
       <c r="Y21" t="n">
-        <v>133.0460633301758</v>
+        <v>481.9986212547565</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="M22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="N22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="O22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="P22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="R22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="S22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="T22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="U22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="V22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="W22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="X22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.763943861888364</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.9417875589154</v>
+        <v>315.9417875589145</v>
       </c>
       <c r="C23" t="n">
-        <v>286.3198544558579</v>
+        <v>286.3198544558572</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618426</v>
+        <v>269.2568483618418</v>
       </c>
       <c r="E23" t="n">
-        <v>218.1466176017574</v>
+        <v>218.1466176017568</v>
       </c>
       <c r="F23" t="n">
-        <v>134.9956418130081</v>
+        <v>134.9956418130078</v>
       </c>
       <c r="G23" t="n">
-        <v>36.0586125915186</v>
+        <v>36.0586125915185</v>
       </c>
       <c r="H23" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I23" t="n">
-        <v>25.53373152780971</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J23" t="n">
-        <v>146.3625368186784</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K23" t="n">
-        <v>146.3625368186784</v>
+        <v>81.14476766195409</v>
       </c>
       <c r="L23" t="n">
-        <v>194.7597873056657</v>
+        <v>129.5420181489414</v>
       </c>
       <c r="M23" t="n">
-        <v>277.4870133087827</v>
+        <v>212.2692441520583</v>
       </c>
       <c r="N23" t="n">
-        <v>354.7104163002875</v>
+        <v>289.4926471435632</v>
       </c>
       <c r="O23" t="n">
-        <v>390.7209271994677</v>
+        <v>325.5031580427434</v>
       </c>
       <c r="P23" t="n">
-        <v>390.7209271994677</v>
+        <v>325.5031580427434</v>
       </c>
       <c r="Q23" t="n">
-        <v>390.7209271994677</v>
+        <v>325.5031580427434</v>
       </c>
       <c r="R23" t="n">
-        <v>390.7209271994677</v>
+        <v>325.5031580427434</v>
       </c>
       <c r="S23" t="n">
-        <v>390.7209271994677</v>
+        <v>418.174393549482</v>
       </c>
       <c r="T23" t="n">
-        <v>488.197193094419</v>
+        <v>418.174393549482</v>
       </c>
       <c r="U23" t="n">
-        <v>488.1971930944192</v>
+        <v>488.1971930944177</v>
       </c>
       <c r="V23" t="n">
-        <v>488.197193094419</v>
+        <v>488.1971930944177</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190505</v>
+        <v>471.0086272190491</v>
       </c>
       <c r="X23" t="n">
-        <v>431.7127376376826</v>
+        <v>431.7127376376814</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.6866933858663</v>
+        <v>369.6866933858653</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>488.197193094419</v>
+        <v>256.3281827984635</v>
       </c>
       <c r="C24" t="n">
-        <v>488.197193094419</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="D24" t="n">
-        <v>488.197193094419</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="E24" t="n">
-        <v>364.9150736261314</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="F24" t="n">
-        <v>241.6329541578438</v>
+        <v>133.0460633301759</v>
       </c>
       <c r="G24" t="n">
-        <v>118.3508346895561</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H24" t="n">
-        <v>118.3508346895561</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I24" t="n">
-        <v>10.10261350397924</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J24" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K24" t="n">
-        <v>43.26205739618901</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L24" t="n">
-        <v>161.8290993236944</v>
+        <v>41.00029403282564</v>
       </c>
       <c r="M24" t="n">
-        <v>161.8290993236944</v>
+        <v>161.8290993236943</v>
       </c>
       <c r="N24" t="n">
-        <v>282.6579046145631</v>
+        <v>282.6579046145629</v>
       </c>
       <c r="O24" t="n">
-        <v>403.4867099054318</v>
+        <v>403.4867099054315</v>
       </c>
       <c r="P24" t="n">
-        <v>488.197193094419</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="Q24" t="n">
-        <v>488.197193094419</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="R24" t="n">
-        <v>488.197193094419</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="S24" t="n">
-        <v>488.197193094419</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="T24" t="n">
-        <v>488.197193094419</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="U24" t="n">
-        <v>488.197193094419</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="V24" t="n">
-        <v>488.197193094419</v>
+        <v>488.1971930944187</v>
       </c>
       <c r="W24" t="n">
-        <v>488.197193094419</v>
+        <v>379.6103022667511</v>
       </c>
       <c r="X24" t="n">
-        <v>488.197193094419</v>
+        <v>379.6103022667511</v>
       </c>
       <c r="Y24" t="n">
-        <v>488.197193094419</v>
+        <v>256.3281827984635</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="C25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="D25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="E25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="F25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="G25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="H25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="I25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="J25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="K25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="L25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="M25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="N25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="O25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="P25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="R25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="S25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="T25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="U25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="V25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="W25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="X25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.76394386188838</v>
+        <v>9.763943861888375</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C26" t="n">
-        <v>885.855379256789</v>
+        <v>885.8553792567883</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7392152223576</v>
+        <v>759.739215222357</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5758265218568</v>
+        <v>599.5758265218561</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3716927926919</v>
+        <v>407.3716927926912</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3815056307867</v>
+        <v>199.381505630786</v>
       </c>
       <c r="H26" t="n">
         <v>64.0336789607407</v>
@@ -6224,16 +6224,16 @@
         <v>36.07516654911175</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7509734792163</v>
+        <v>171.7509734792161</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2303396281798</v>
+        <v>377.2303396281795</v>
       </c>
       <c r="L26" t="n">
-        <v>636.415575790826</v>
+        <v>636.4155757908258</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9307874696018</v>
+        <v>929.9307874696019</v>
       </c>
       <c r="N26" t="n">
         <v>1217.942176136766</v>
@@ -6254,7 +6254,7 @@
         <v>1789.25800647746</v>
       </c>
       <c r="T26" t="n">
-        <v>1779.660277467716</v>
+        <v>1779.660277467715</v>
       </c>
       <c r="U26" t="n">
         <v>1742.051665537845</v>
@@ -6266,10 +6266,10 @@
         <v>1506.756783781644</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.407736259861</v>
+        <v>1358.40773625986</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.328534067629</v>
+        <v>1187.328534067628</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>498.2884639412885</v>
+        <v>333.7356620017249</v>
       </c>
       <c r="C27" t="n">
-        <v>308.8761896742523</v>
+        <v>144.3233877346886</v>
       </c>
       <c r="D27" t="n">
-        <v>148.096073435284</v>
+        <v>144.3233877346886</v>
       </c>
       <c r="E27" t="n">
-        <v>148.096073435284</v>
+        <v>144.3233877346886</v>
       </c>
       <c r="F27" t="n">
-        <v>148.096073435284</v>
+        <v>144.3233877346886</v>
       </c>
       <c r="G27" t="n">
-        <v>36.07516654911175</v>
+        <v>144.3233877346886</v>
       </c>
       <c r="H27" t="n">
-        <v>36.07516654911175</v>
+        <v>144.3233877346886</v>
       </c>
       <c r="I27" t="n">
         <v>36.07516654911175</v>
@@ -6327,28 +6327,28 @@
         <v>800.787181073825</v>
       </c>
       <c r="R27" t="n">
-        <v>800.787181073825</v>
+        <v>672.7663618115085</v>
       </c>
       <c r="S27" t="n">
-        <v>800.787181073825</v>
+        <v>672.7663618115085</v>
       </c>
       <c r="T27" t="n">
-        <v>798.7360447531761</v>
+        <v>670.7152254908597</v>
       </c>
       <c r="U27" t="n">
-        <v>774.1799492655456</v>
+        <v>646.1591300032292</v>
       </c>
       <c r="V27" t="n">
-        <v>746.1680667733618</v>
+        <v>618.1472475110454</v>
       </c>
       <c r="W27" t="n">
-        <v>691.8373331078353</v>
+        <v>563.8165138455188</v>
       </c>
       <c r="X27" t="n">
-        <v>687.3971743287138</v>
+        <v>344.3085194622151</v>
       </c>
       <c r="Y27" t="n">
-        <v>676.8243168682236</v>
+        <v>333.7356620017249</v>
       </c>
     </row>
     <row r="28">
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.02240076645225</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="C28" t="n">
-        <v>71.02240076645225</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="D28" t="n">
-        <v>71.02240076645225</v>
+        <v>103.132328476567</v>
       </c>
       <c r="E28" t="n">
-        <v>71.02240076645225</v>
+        <v>153.1991423379681</v>
       </c>
       <c r="F28" t="n">
-        <v>71.02240076645225</v>
+        <v>226.4495146173648</v>
       </c>
       <c r="G28" t="n">
-        <v>114.8013844301392</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="H28" t="n">
-        <v>161.4655830845784</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="I28" t="n">
-        <v>161.4655830845784</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="J28" t="n">
-        <v>161.4655830845784</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="K28" t="n">
-        <v>161.4655830845784</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="L28" t="n">
-        <v>161.4655830845784</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="M28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="N28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="O28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5648574270849</v>
+        <v>247.5648574270851</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6316904687925</v>
+        <v>236.6316904687927</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1275115022783</v>
+        <v>160.1275115022785</v>
       </c>
       <c r="V28" t="n">
-        <v>127.6104832837838</v>
+        <v>127.6104832837839</v>
       </c>
       <c r="W28" t="n">
-        <v>49.43518041388985</v>
+        <v>49.43518041388991</v>
       </c>
       <c r="X28" t="n">
-        <v>40.34194994914014</v>
+        <v>40.34194994914017</v>
       </c>
       <c r="Y28" t="n">
         <v>36.07516654911175</v>
@@ -6440,34 +6440,34 @@
         <v>1024.530470300262</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8553792567891</v>
+        <v>885.8553792567883</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7392152223578</v>
+        <v>759.739215222357</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5758265218569</v>
+        <v>599.5758265218561</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3716927926921</v>
+        <v>407.3716927926912</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3815056307869</v>
+        <v>199.381505630786</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03367896074066</v>
+        <v>64.0336789607407</v>
       </c>
       <c r="I29" t="n">
         <v>36.07516654911174</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7509734792161</v>
+        <v>171.7509734792159</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2303396281795</v>
+        <v>377.2303396281793</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4155757908258</v>
+        <v>636.4155757908255</v>
       </c>
       <c r="M29" t="n">
         <v>929.9307874696016</v>
@@ -6494,19 +6494,19 @@
         <v>1779.660277467715</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.051665537845</v>
+        <v>1742.051665537844</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.998507597429</v>
+        <v>1632.998507597428</v>
       </c>
       <c r="W29" t="n">
-        <v>1506.756783781645</v>
+        <v>1506.756783781644</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.407736259861</v>
+        <v>1358.40773625986</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.328534067629</v>
+        <v>1187.328534067628</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>246.6886456598593</v>
+        <v>196.7807059521151</v>
       </c>
       <c r="C30" t="n">
-        <v>246.6886456598593</v>
+        <v>196.7807059521151</v>
       </c>
       <c r="D30" t="n">
-        <v>246.6886456598593</v>
+        <v>196.7807059521151</v>
       </c>
       <c r="E30" t="n">
-        <v>246.6886456598593</v>
+        <v>196.7807059521151</v>
       </c>
       <c r="F30" t="n">
-        <v>246.6886456598593</v>
+        <v>196.7807059521151</v>
       </c>
       <c r="G30" t="n">
-        <v>163.024738142884</v>
+        <v>196.7807059521151</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07516654911174</v>
+        <v>196.7807059521151</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07516654911174</v>
+        <v>88.53248476653825</v>
       </c>
       <c r="J30" t="n">
         <v>36.07516654911174</v>
@@ -6564,28 +6564,28 @@
         <v>800.787181073825</v>
       </c>
       <c r="R30" t="n">
-        <v>800.787181073825</v>
+        <v>665.0666380284964</v>
       </c>
       <c r="S30" t="n">
-        <v>800.787181073825</v>
+        <v>665.0666380284964</v>
       </c>
       <c r="T30" t="n">
-        <v>798.7360447531761</v>
+        <v>663.0155017078475</v>
       </c>
       <c r="U30" t="n">
-        <v>774.1799492655456</v>
+        <v>638.459406220217</v>
       </c>
       <c r="V30" t="n">
-        <v>746.1680667733618</v>
+        <v>481.1922914614356</v>
       </c>
       <c r="W30" t="n">
-        <v>691.8373331078353</v>
+        <v>211.7937221917269</v>
       </c>
       <c r="X30" t="n">
-        <v>472.3293387245317</v>
+        <v>207.3535634126054</v>
       </c>
       <c r="Y30" t="n">
-        <v>246.6886456598593</v>
+        <v>196.7807059521151</v>
       </c>
     </row>
     <row r="31">
@@ -6595,73 +6595,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.11137810966088</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C31" t="n">
-        <v>45.11137810966088</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D31" t="n">
-        <v>45.11137810966088</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E31" t="n">
-        <v>115.639983985217</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F31" t="n">
-        <v>115.639983985217</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G31" t="n">
-        <v>115.639983985217</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H31" t="n">
-        <v>115.639983985217</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I31" t="n">
-        <v>115.639983985217</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J31" t="n">
-        <v>115.639983985217</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K31" t="n">
-        <v>260.6219149623251</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="L31" t="n">
-        <v>260.6219149623251</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="M31" t="n">
-        <v>260.6219149623251</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="N31" t="n">
-        <v>260.6219149623251</v>
+        <v>95.87107322179779</v>
       </c>
       <c r="O31" t="n">
-        <v>260.6219149623251</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="P31" t="n">
-        <v>260.6219149623251</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.6219149623251</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2284982810516</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5648574270849</v>
+        <v>247.5648574270851</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6316904687925</v>
+        <v>236.6316904687927</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1275115022783</v>
+        <v>160.1275115022785</v>
       </c>
       <c r="V31" t="n">
-        <v>127.6104832837838</v>
+        <v>127.6104832837839</v>
       </c>
       <c r="W31" t="n">
-        <v>49.43518041388984</v>
+        <v>49.4351804138899</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914013</v>
+        <v>40.34194994914016</v>
       </c>
       <c r="Y31" t="n">
         <v>36.07516654911174</v>
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.530470300263</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8553792567893</v>
+        <v>885.8553792567884</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7392152223581</v>
+        <v>759.739215222357</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5758265218573</v>
+        <v>599.5758265218561</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3716927926924</v>
+        <v>407.3716927926912</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3815056307866</v>
+        <v>199.3815056307867</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03367896074064</v>
+        <v>64.0336789607407</v>
       </c>
       <c r="I32" t="n">
         <v>36.07516654911174</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7509734792156</v>
+        <v>171.7509734792161</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2303396281791</v>
+        <v>377.2303396281795</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4155757908254</v>
+        <v>636.4155757908256</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9307874696012</v>
+        <v>929.9307874696015</v>
       </c>
       <c r="N32" t="n">
         <v>1217.942176136765</v>
@@ -6737,13 +6737,13 @@
         <v>1632.998507597429</v>
       </c>
       <c r="W32" t="n">
-        <v>1506.756783781645</v>
+        <v>1506.756783781644</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.407736259861</v>
+        <v>1358.40773625986</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.328534067629</v>
+        <v>1187.328534067628</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>534.9052019832332</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C33" t="n">
-        <v>534.9052019832332</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D33" t="n">
-        <v>374.1250857442649</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E33" t="n">
-        <v>200.5618818656793</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F33" t="n">
-        <v>200.5618818656793</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G33" t="n">
-        <v>200.5618818656793</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H33" t="n">
-        <v>73.61231027190712</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="I33" t="n">
         <v>36.07516654911174</v>
@@ -6798,31 +6798,31 @@
         <v>800.787181073825</v>
       </c>
       <c r="Q33" t="n">
-        <v>794.5886092341627</v>
+        <v>800.787181073825</v>
       </c>
       <c r="R33" t="n">
-        <v>658.8680661888342</v>
+        <v>800.787181073825</v>
       </c>
       <c r="S33" t="n">
-        <v>658.8680661888342</v>
+        <v>800.787181073825</v>
       </c>
       <c r="T33" t="n">
-        <v>656.8169298681854</v>
+        <v>798.7360447531761</v>
       </c>
       <c r="U33" t="n">
-        <v>632.260834380555</v>
+        <v>559.1121136613635</v>
       </c>
       <c r="V33" t="n">
-        <v>604.2489518883713</v>
+        <v>316.0323955649976</v>
       </c>
       <c r="W33" t="n">
-        <v>549.9182182228448</v>
+        <v>51.08818278872351</v>
       </c>
       <c r="X33" t="n">
-        <v>545.4780594437233</v>
+        <v>46.64802400960198</v>
       </c>
       <c r="Y33" t="n">
-        <v>534.9052019832332</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.02240076645228</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="C34" t="n">
-        <v>71.02240076645228</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="D34" t="n">
-        <v>71.02240076645228</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="E34" t="n">
-        <v>141.5510066420085</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="F34" t="n">
-        <v>141.5510066420085</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="G34" t="n">
-        <v>141.5510066420085</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="H34" t="n">
-        <v>141.5510066420085</v>
+        <v>82.73936520355085</v>
       </c>
       <c r="I34" t="n">
-        <v>141.5510066420085</v>
+        <v>130.4662140267154</v>
       </c>
       <c r="J34" t="n">
-        <v>141.5510066420085</v>
+        <v>130.4662140267154</v>
       </c>
       <c r="K34" t="n">
-        <v>141.5510066420085</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="L34" t="n">
-        <v>141.5510066420085</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="M34" t="n">
-        <v>141.5510066420085</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="N34" t="n">
-        <v>270.2284982810514</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="O34" t="n">
-        <v>270.2284982810514</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="P34" t="n">
-        <v>270.2284982810514</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2284982810514</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2284982810514</v>
+        <v>270.2284982810518</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5648574270847</v>
+        <v>247.5648574270851</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6316904687924</v>
+        <v>236.6316904687927</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1275115022782</v>
+        <v>160.1275115022785</v>
       </c>
       <c r="V34" t="n">
-        <v>127.6104832837837</v>
+        <v>127.6104832837839</v>
       </c>
       <c r="W34" t="n">
-        <v>49.43518041388978</v>
+        <v>49.4351804138899</v>
       </c>
       <c r="X34" t="n">
-        <v>40.3419499491401</v>
+        <v>40.34194994914016</v>
       </c>
       <c r="Y34" t="n">
         <v>36.07516654911174</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>773.6196706102305</v>
+        <v>773.6196706102298</v>
       </c>
       <c r="C35" t="n">
-        <v>670.4759701361761</v>
+        <v>670.4759701361754</v>
       </c>
       <c r="D35" t="n">
-        <v>579.8911966711638</v>
+        <v>579.8911966711632</v>
       </c>
       <c r="E35" t="n">
-        <v>455.259198540082</v>
+        <v>455.2591985400815</v>
       </c>
       <c r="F35" t="n">
-        <v>298.5864553803362</v>
+        <v>298.5864553803357</v>
       </c>
       <c r="G35" t="n">
-        <v>126.1276587878503</v>
+        <v>126.1276587878502</v>
       </c>
       <c r="H35" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="I35" t="n">
-        <v>33.73340056967348</v>
+        <v>33.73340056967352</v>
       </c>
       <c r="J35" t="n">
-        <v>204.2335233968654</v>
+        <v>204.2335233968655</v>
       </c>
       <c r="K35" t="n">
-        <v>444.5372054429165</v>
+        <v>336.0697069713249</v>
       </c>
       <c r="L35" t="n">
-        <v>621.1762747110182</v>
+        <v>384.4669574583123</v>
       </c>
       <c r="M35" t="n">
-        <v>703.9035007141351</v>
+        <v>467.1941834614292</v>
       </c>
       <c r="N35" t="n">
-        <v>1026.739205278387</v>
+        <v>544.4175864529341</v>
       </c>
       <c r="O35" t="n">
-        <v>1062.749716177567</v>
+        <v>826.0403989248608</v>
       </c>
       <c r="P35" t="n">
-        <v>1294.948583054744</v>
+        <v>1058.239265802038</v>
       </c>
       <c r="Q35" t="n">
-        <v>1294.948583054744</v>
+        <v>1216.184125155466</v>
       </c>
       <c r="R35" t="n">
-        <v>1294.948583054744</v>
+        <v>1269.531001360106</v>
       </c>
       <c r="S35" t="n">
-        <v>1315.561134361169</v>
+        <v>1290.143552666531</v>
       </c>
       <c r="T35" t="n">
-        <v>1315.561134361169</v>
+        <v>1315.561134361168</v>
       </c>
       <c r="U35" t="n">
-        <v>1313.483913000718</v>
+        <v>1313.483913000717</v>
       </c>
       <c r="V35" t="n">
-        <v>1239.962145629721</v>
+        <v>1239.96214562972</v>
       </c>
       <c r="W35" t="n">
-        <v>1149.251812383356</v>
+        <v>1149.251812383355</v>
       </c>
       <c r="X35" t="n">
-        <v>1036.434155430991</v>
+        <v>1036.43415543099</v>
       </c>
       <c r="Y35" t="n">
-        <v>900.8863438081781</v>
+        <v>900.8863438081773</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>186.7389389699793</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="C36" t="n">
-        <v>186.7389389699793</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="D36" t="n">
-        <v>186.7389389699793</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="E36" t="n">
-        <v>186.7389389699793</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="F36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="G36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="H36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="I36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="J36" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="K36" t="n">
         <v>65.19236910701477</v>
@@ -7038,28 +7038,28 @@
         <v>791.0232372119365</v>
       </c>
       <c r="R36" t="n">
-        <v>655.3026941666079</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="S36" t="n">
-        <v>655.3026941666079</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="T36" t="n">
-        <v>655.3026941666079</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="U36" t="n">
-        <v>655.3026941666079</v>
+        <v>791.0232372119365</v>
       </c>
       <c r="V36" t="n">
-        <v>655.3026941666079</v>
+        <v>740.8584794049081</v>
       </c>
       <c r="W36" t="n">
-        <v>385.9041248968992</v>
+        <v>471.4599101351994</v>
       </c>
       <c r="X36" t="n">
-        <v>385.9041248968992</v>
+        <v>251.9519157518957</v>
       </c>
       <c r="Y36" t="n">
-        <v>186.7389389699793</v>
+        <v>26.31122268722337</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="C37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="D37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="E37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="G37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="H37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="I37" t="n">
-        <v>109.9279233847934</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="J37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="K37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="L37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="M37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="N37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="O37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="P37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="S37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="T37" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="U37" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769823</v>
       </c>
       <c r="V37" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769823</v>
       </c>
       <c r="W37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="X37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
     </row>
     <row r="38">
@@ -7151,58 +7151,58 @@
         <v>773.6196706102302</v>
       </c>
       <c r="C38" t="n">
-        <v>670.475970136176</v>
+        <v>670.4759701361761</v>
       </c>
       <c r="D38" t="n">
-        <v>579.8911966711637</v>
+        <v>579.8911966711638</v>
       </c>
       <c r="E38" t="n">
-        <v>455.2591985400819</v>
+        <v>455.2591985400821</v>
       </c>
       <c r="F38" t="n">
-        <v>298.5864553803361</v>
+        <v>298.5864553803362</v>
       </c>
       <c r="G38" t="n">
-        <v>126.1276587878503</v>
+        <v>126.1276587878502</v>
       </c>
       <c r="H38" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="I38" t="n">
-        <v>33.73340056967348</v>
+        <v>33.73340056967352</v>
       </c>
       <c r="J38" t="n">
-        <v>204.2335233968654</v>
+        <v>204.2335233968655</v>
       </c>
       <c r="K38" t="n">
-        <v>444.5372054429165</v>
+        <v>204.2335233968655</v>
       </c>
       <c r="L38" t="n">
-        <v>631.1135381433478</v>
+        <v>373.7916695842175</v>
       </c>
       <c r="M38" t="n">
-        <v>956.7149188977371</v>
+        <v>699.3930503386066</v>
       </c>
       <c r="N38" t="n">
-        <v>1279.550623461989</v>
+        <v>1022.228754902858</v>
       </c>
       <c r="O38" t="n">
-        <v>1315.561134361169</v>
+        <v>1058.239265802038</v>
       </c>
       <c r="P38" t="n">
-        <v>1315.561134361169</v>
+        <v>1058.239265802038</v>
       </c>
       <c r="Q38" t="n">
-        <v>1315.561134361169</v>
+        <v>1216.184125155466</v>
       </c>
       <c r="R38" t="n">
-        <v>1315.561134361169</v>
+        <v>1269.531001360106</v>
       </c>
       <c r="S38" t="n">
-        <v>1315.561134361169</v>
+        <v>1290.143552666531</v>
       </c>
       <c r="T38" t="n">
-        <v>1315.561134361169</v>
+        <v>1315.561134361168</v>
       </c>
       <c r="U38" t="n">
         <v>1313.483913000717</v>
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>360.6545428047772</v>
+        <v>239.1962571874058</v>
       </c>
       <c r="C39" t="n">
-        <v>360.6545428047772</v>
+        <v>239.1962571874058</v>
       </c>
       <c r="D39" t="n">
-        <v>199.8744265658089</v>
+        <v>239.1962571874058</v>
       </c>
       <c r="E39" t="n">
-        <v>26.31122268722338</v>
+        <v>239.1962571874058</v>
       </c>
       <c r="F39" t="n">
-        <v>26.31122268722338</v>
+        <v>78.76854090464987</v>
       </c>
       <c r="G39" t="n">
-        <v>26.31122268722338</v>
+        <v>78.76854090464987</v>
       </c>
       <c r="H39" t="n">
-        <v>26.31122268722338</v>
+        <v>78.76854090464987</v>
       </c>
       <c r="I39" t="n">
-        <v>26.31122268722338</v>
+        <v>78.76854090464987</v>
       </c>
       <c r="J39" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="K39" t="n">
         <v>65.19236910701477</v>
@@ -7275,28 +7275,28 @@
         <v>791.0232372119365</v>
       </c>
       <c r="R39" t="n">
-        <v>791.0232372119365</v>
+        <v>655.3026941666079</v>
       </c>
       <c r="S39" t="n">
-        <v>791.0232372119365</v>
+        <v>461.8843613339558</v>
       </c>
       <c r="T39" t="n">
-        <v>791.0232372119365</v>
+        <v>461.8843613339558</v>
       </c>
       <c r="U39" t="n">
-        <v>791.0232372119365</v>
+        <v>461.8843613339558</v>
       </c>
       <c r="V39" t="n">
-        <v>547.9435191155706</v>
+        <v>461.8843613339558</v>
       </c>
       <c r="W39" t="n">
-        <v>529.1441760194631</v>
+        <v>239.1962571874058</v>
       </c>
       <c r="X39" t="n">
-        <v>529.1441760194631</v>
+        <v>239.1962571874058</v>
       </c>
       <c r="Y39" t="n">
-        <v>360.6545428047772</v>
+        <v>239.1962571874058</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.95366417394315</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="C40" t="n">
-        <v>56.95366417394315</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="D40" t="n">
-        <v>56.95366417394315</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="E40" t="n">
-        <v>56.95366417394315</v>
+        <v>97.31624188867842</v>
       </c>
       <c r="F40" t="n">
-        <v>56.95366417394315</v>
+        <v>97.31624188867842</v>
       </c>
       <c r="G40" t="n">
-        <v>56.95366417394315</v>
+        <v>97.31624188867842</v>
       </c>
       <c r="H40" t="n">
-        <v>56.95366417394315</v>
+        <v>97.31624188867842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.95366417394315</v>
+        <v>97.31624188867842</v>
       </c>
       <c r="J40" t="n">
-        <v>56.95366417394315</v>
+        <v>97.31624188867842</v>
       </c>
       <c r="K40" t="n">
-        <v>56.95366417394315</v>
+        <v>97.31624188867842</v>
       </c>
       <c r="L40" t="n">
-        <v>56.95366417394315</v>
+        <v>97.31624188867842</v>
       </c>
       <c r="M40" t="n">
-        <v>56.95366417394315</v>
+        <v>97.31624188867842</v>
       </c>
       <c r="N40" t="n">
-        <v>56.95366417394315</v>
+        <v>97.31624188867842</v>
       </c>
       <c r="O40" t="n">
-        <v>56.95366417394315</v>
+        <v>97.31624188867842</v>
       </c>
       <c r="P40" t="n">
-        <v>56.95366417394315</v>
+        <v>97.31624188867842</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.95366417394315</v>
+        <v>97.31624188867842</v>
       </c>
       <c r="R40" t="n">
-        <v>85.81920442352821</v>
+        <v>97.31624188867842</v>
       </c>
       <c r="S40" t="n">
-        <v>85.81920442352821</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="T40" t="n">
-        <v>109.9279233847934</v>
+        <v>109.9279233847933</v>
       </c>
       <c r="U40" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769823</v>
       </c>
       <c r="V40" t="n">
-        <v>68.9551349876983</v>
+        <v>68.95513498769823</v>
       </c>
       <c r="W40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="X40" t="n">
-        <v>26.31122268722338</v>
+        <v>26.31122268722337</v>
       </c>
       <c r="Y40" t="n">
-        <v>56.95366417394315</v>
+        <v>26.31122268722337</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.9115219629601</v>
+        <v>820.9115219629606</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1949433311156</v>
+        <v>710.1949433311161</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0372917083134</v>
+        <v>612.0372917083139</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8324154194415</v>
+        <v>479.832415419442</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5867941019055</v>
+        <v>315.586794101906</v>
       </c>
       <c r="G41" t="n">
         <v>135.5551193516299</v>
@@ -7415,28 +7415,28 @@
         <v>424.1252542015555</v>
       </c>
       <c r="L41" t="n">
-        <v>710.7126283788393</v>
+        <v>472.5225046885429</v>
       </c>
       <c r="M41" t="n">
-        <v>793.4398543819563</v>
+        <v>555.2497306916598</v>
       </c>
       <c r="N41" t="n">
-        <v>1108.853381063758</v>
+        <v>681.6797740471065</v>
       </c>
       <c r="O41" t="n">
-        <v>1211.842874867472</v>
+        <v>955.8804086365832</v>
       </c>
       <c r="P41" t="n">
-        <v>1211.842874867472</v>
+        <v>1180.657097631311</v>
       </c>
       <c r="Q41" t="n">
-        <v>1362.36555633845</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="R41" t="n">
-        <v>1408.29025466064</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="S41" t="n">
-        <v>1408.29025466064</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="T41" t="n">
         <v>1408.29025466064</v>
@@ -7445,7 +7445,7 @@
         <v>1398.640155142399</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.545509613611</v>
+        <v>1317.545509613612</v>
       </c>
       <c r="W41" t="n">
         <v>1219.262298209456</v>
@@ -7454,7 +7454,7 @@
         <v>1098.871763099301</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.751073318698</v>
+        <v>955.7510733186984</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.8900273407274</v>
+        <v>447.4354184687841</v>
       </c>
       <c r="C42" t="n">
-        <v>155.4777530736911</v>
+        <v>447.4354184687841</v>
       </c>
       <c r="D42" t="n">
-        <v>28.1658050932128</v>
+        <v>286.6553022298158</v>
       </c>
       <c r="E42" t="n">
-        <v>28.1658050932128</v>
+        <v>286.6553022298158</v>
       </c>
       <c r="F42" t="n">
-        <v>28.1658050932128</v>
+        <v>286.6553022298158</v>
       </c>
       <c r="G42" t="n">
-        <v>28.1658050932128</v>
+        <v>136.4140262787897</v>
       </c>
       <c r="H42" t="n">
-        <v>28.1658050932128</v>
+        <v>136.4140262787897</v>
       </c>
       <c r="I42" t="n">
         <v>28.1658050932128</v>
@@ -7512,28 +7512,28 @@
         <v>792.877819617926</v>
       </c>
       <c r="R42" t="n">
-        <v>792.877819617926</v>
+        <v>699.501702867909</v>
       </c>
       <c r="S42" t="n">
-        <v>792.877819617926</v>
+        <v>699.501702867909</v>
       </c>
       <c r="T42" t="n">
-        <v>792.877819617926</v>
+        <v>699.501702867909</v>
       </c>
       <c r="U42" t="n">
-        <v>792.877819617926</v>
+        <v>699.501702867909</v>
       </c>
       <c r="V42" t="n">
-        <v>792.8244495373712</v>
+        <v>699.4483327873542</v>
       </c>
       <c r="W42" t="n">
-        <v>523.4258802676625</v>
+        <v>673.0761115334565</v>
       </c>
       <c r="X42" t="n">
-        <v>523.4258802676625</v>
+        <v>673.0761115334565</v>
       </c>
       <c r="Y42" t="n">
-        <v>523.4258802676625</v>
+        <v>447.4354184687841</v>
       </c>
     </row>
     <row r="43">
@@ -7546,55 +7546,55 @@
         <v>28.1658050932128</v>
       </c>
       <c r="C43" t="n">
-        <v>101.5633196212566</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="D43" t="n">
-        <v>101.5633196212566</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F43" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G43" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H43" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I43" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J43" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K43" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="L43" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="M43" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="N43" t="n">
-        <v>114.8002368344137</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="O43" t="n">
-        <v>114.8002368344137</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="P43" t="n">
-        <v>114.8002368344137</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="Q43" t="n">
-        <v>114.8002368344137</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="R43" t="n">
-        <v>114.8002368344137</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="S43" t="n">
-        <v>114.8002368344137</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="T43" t="n">
         <v>131.4867779132288</v>
@@ -7634,7 +7634,7 @@
         <v>479.8324154194419</v>
       </c>
       <c r="F44" t="n">
-        <v>315.586794101906</v>
+        <v>315.5867941019059</v>
       </c>
       <c r="G44" t="n">
         <v>135.5551193516299</v>
@@ -7646,34 +7646,34 @@
         <v>28.1658050932128</v>
       </c>
       <c r="J44" t="n">
-        <v>191.2437500379547</v>
+        <v>191.2437500379546</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1252542015556</v>
+        <v>424.1252542015555</v>
       </c>
       <c r="L44" t="n">
-        <v>472.5225046885429</v>
+        <v>710.7126283788393</v>
       </c>
       <c r="M44" t="n">
-        <v>793.4398543819564</v>
+        <v>842.6464947458981</v>
       </c>
       <c r="N44" t="n">
-        <v>1108.853381063758</v>
+        <v>919.869897737403</v>
       </c>
       <c r="O44" t="n">
-        <v>1144.863891962938</v>
+        <v>955.8804086365832</v>
       </c>
       <c r="P44" t="n">
-        <v>1257.767573189663</v>
+        <v>1180.657097631311</v>
       </c>
       <c r="Q44" t="n">
-        <v>1408.29025466064</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="R44" t="n">
-        <v>1408.29025466064</v>
+        <v>1377.104477424478</v>
       </c>
       <c r="S44" t="n">
-        <v>1408.29025466064</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="T44" t="n">
         <v>1408.29025466064</v>
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>58.16125611117764</v>
+        <v>466.0621920410146</v>
       </c>
       <c r="C45" t="n">
-        <v>28.1658050932128</v>
+        <v>466.0621920410146</v>
       </c>
       <c r="D45" t="n">
-        <v>28.1658050932128</v>
+        <v>466.0621920410146</v>
       </c>
       <c r="E45" t="n">
-        <v>28.1658050932128</v>
+        <v>466.0621920410146</v>
       </c>
       <c r="F45" t="n">
-        <v>28.1658050932128</v>
+        <v>466.0621920410146</v>
       </c>
       <c r="G45" t="n">
-        <v>28.1658050932128</v>
+        <v>315.8209160899884</v>
       </c>
       <c r="H45" t="n">
-        <v>28.1658050932128</v>
+        <v>188.8713444962162</v>
       </c>
       <c r="I45" t="n">
-        <v>28.1658050932128</v>
+        <v>80.6231233106393</v>
       </c>
       <c r="J45" t="n">
         <v>28.1658050932128</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04695151300422</v>
+        <v>67.0469515130042</v>
       </c>
       <c r="L45" t="n">
         <v>185.6139934405096</v>
       </c>
       <c r="M45" t="n">
-        <v>368.7308031412894</v>
+        <v>368.7308031412893</v>
       </c>
       <c r="N45" t="n">
         <v>575.1140594806554</v>
@@ -7743,34 +7743,34 @@
         <v>708.1673364289388</v>
       </c>
       <c r="P45" t="n">
-        <v>792.8778196179261</v>
+        <v>792.877819617926</v>
       </c>
       <c r="Q45" t="n">
-        <v>792.8778196179261</v>
+        <v>792.877819617926</v>
       </c>
       <c r="R45" t="n">
-        <v>792.8778196179261</v>
+        <v>792.877819617926</v>
       </c>
       <c r="S45" t="n">
-        <v>792.8778196179261</v>
+        <v>792.877819617926</v>
       </c>
       <c r="T45" t="n">
-        <v>792.8778196179261</v>
+        <v>792.877819617926</v>
       </c>
       <c r="U45" t="n">
-        <v>553.2538885261135</v>
+        <v>553.2538885261133</v>
       </c>
       <c r="V45" t="n">
-        <v>310.1741704297476</v>
+        <v>553.2005184455585</v>
       </c>
       <c r="W45" t="n">
-        <v>283.80194917585</v>
+        <v>526.8282971916608</v>
       </c>
       <c r="X45" t="n">
-        <v>283.80194917585</v>
+        <v>526.8282971916608</v>
       </c>
       <c r="Y45" t="n">
-        <v>58.16125611117764</v>
+        <v>466.0621920410146</v>
       </c>
     </row>
     <row r="46">
@@ -7789,49 +7789,49 @@
         <v>28.1658050932128</v>
       </c>
       <c r="E46" t="n">
-        <v>126.0965489834064</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="F46" t="n">
-        <v>126.0965489834064</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="G46" t="n">
-        <v>126.0965489834064</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="H46" t="n">
-        <v>126.0965489834064</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="I46" t="n">
-        <v>126.0965489834064</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="J46" t="n">
-        <v>126.0965489834064</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="K46" t="n">
-        <v>126.0965489834064</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="L46" t="n">
-        <v>126.0965489834064</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="M46" t="n">
-        <v>126.0965489834064</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="N46" t="n">
-        <v>126.0965489834064</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="O46" t="n">
-        <v>126.0965489834064</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="P46" t="n">
-        <v>126.0965489834064</v>
+        <v>28.1658050932128</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.0965489834064</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="R46" t="n">
-        <v>126.0965489834064</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="S46" t="n">
-        <v>126.0965489834064</v>
+        <v>131.4867779132288</v>
       </c>
       <c r="T46" t="n">
         <v>131.4867779132288</v>
@@ -8769,19 +8769,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>165.9360666291095</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>238.8597051383725</v>
+        <v>233.4222981833313</v>
       </c>
       <c r="N12" t="n">
         <v>102.1459228782933</v>
       </c>
       <c r="O12" t="n">
-        <v>242.8748317222148</v>
+        <v>242.8748317222149</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9009,16 +9009,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>120.5398549409796</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>231.1376887253884</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N15" t="n">
-        <v>224.1952211518979</v>
+        <v>218.7578141968567</v>
       </c>
       <c r="O15" t="n">
-        <v>242.8748317222148</v>
+        <v>120.8255334486102</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>163.6514571711669</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>120.5398549409796</v>
+        <v>198.3839831633362</v>
       </c>
       <c r="M18" t="n">
-        <v>238.8597051383725</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N18" t="n">
-        <v>224.1952211518979</v>
+        <v>224.195221151898</v>
       </c>
       <c r="O18" t="n">
-        <v>242.8748317222148</v>
+        <v>242.8748317222149</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7977294433387</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,22 +9480,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>132.0995883116344</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>152.0917238005121</v>
       </c>
       <c r="M21" t="n">
-        <v>196.939144545067</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N21" t="n">
-        <v>224.1952211518979</v>
+        <v>224.195221151898</v>
       </c>
       <c r="O21" t="n">
-        <v>242.8748317222148</v>
+        <v>242.8748317222149</v>
       </c>
       <c r="P21" t="n">
-        <v>120.7977294433387</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,19 +9717,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>165.9360666291098</v>
+        <v>132.0995883116344</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566416</v>
+        <v>152.0917238005121</v>
       </c>
       <c r="M24" t="n">
-        <v>116.8104068647679</v>
+        <v>238.8597051383726</v>
       </c>
       <c r="N24" t="n">
         <v>224.195221151898</v>
       </c>
       <c r="O24" t="n">
-        <v>242.874831722215</v>
+        <v>242.8748317222149</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.7047647029786</v>
+        <v>179.7047647029787</v>
       </c>
       <c r="C11" t="n">
-        <v>155.8230217063241</v>
+        <v>33.77372343271946</v>
       </c>
       <c r="D11" t="n">
-        <v>21.34038569376798</v>
+        <v>143.3896839673726</v>
       </c>
       <c r="E11" t="n">
-        <v>177.0964363867814</v>
+        <v>177.0964363867815</v>
       </c>
       <c r="F11" t="n">
-        <v>208.8167739651587</v>
+        <v>208.8167739651588</v>
       </c>
       <c r="G11" t="n">
         <v>102.3956685899671</v>
       </c>
       <c r="H11" t="n">
-        <v>152.5290299766311</v>
+        <v>152.5290299766312</v>
       </c>
       <c r="I11" t="n">
-        <v>46.2136088607982</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.03643329293227</v>
       </c>
       <c r="U11" t="n">
-        <v>55.76720738385725</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>126.4973079342973</v>
       </c>
       <c r="W11" t="n">
-        <v>96.9393988660855</v>
+        <v>143.5139881509122</v>
       </c>
       <c r="X11" t="n">
-        <v>43.35094034624683</v>
+        <v>165.4002386198515</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.9030917435952</v>
+        <v>93.22358713688706</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.7047647029786</v>
+        <v>179.7047647029787</v>
       </c>
       <c r="C14" t="n">
-        <v>33.77372343271952</v>
+        <v>155.8230217063241</v>
       </c>
       <c r="D14" t="n">
-        <v>21.34038569376798</v>
+        <v>21.34038569376793</v>
       </c>
       <c r="E14" t="n">
-        <v>177.0964363867814</v>
+        <v>55.0471381131768</v>
       </c>
       <c r="F14" t="n">
-        <v>208.8167739651587</v>
+        <v>208.8167739651588</v>
       </c>
       <c r="G14" t="n">
-        <v>224.4449668635717</v>
+        <v>157.8018955497959</v>
       </c>
       <c r="H14" t="n">
-        <v>30.47973170302654</v>
+        <v>152.5290299766312</v>
       </c>
       <c r="I14" t="n">
-        <v>46.21360886079822</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>9.192618099030675</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>126.4973079342973</v>
@@ -23558,7 +23558,7 @@
         <v>143.5139881509122</v>
       </c>
       <c r="X14" t="n">
-        <v>165.4002386198514</v>
+        <v>165.4002386198515</v>
       </c>
       <c r="Y14" t="n">
         <v>187.9030917435952</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396869.397829407</v>
+        <v>396869.3978294069</v>
       </c>
       <c r="C2" t="n">
-        <v>396869.3978294068</v>
+        <v>396869.3978294069</v>
       </c>
       <c r="D2" t="n">
-        <v>396869.3978294069</v>
+        <v>396869.3978294067</v>
       </c>
       <c r="E2" t="n">
-        <v>341995.5400592161</v>
+        <v>341995.5400592158</v>
       </c>
       <c r="F2" t="n">
-        <v>341995.5400592163</v>
+        <v>341995.5400592156</v>
       </c>
       <c r="G2" t="n">
-        <v>397673.3469863408</v>
+        <v>397673.3469863411</v>
       </c>
       <c r="H2" t="n">
-        <v>397673.3469863412</v>
+        <v>397673.346986341</v>
       </c>
       <c r="I2" t="n">
         <v>397673.3469863411</v>
@@ -26338,7 +26338,7 @@
         <v>397673.3469863409</v>
       </c>
       <c r="K2" t="n">
-        <v>397673.3469863411</v>
+        <v>397673.346986341</v>
       </c>
       <c r="L2" t="n">
         <v>397673.3469863408</v>
@@ -26347,13 +26347,13 @@
         <v>397673.3469863409</v>
       </c>
       <c r="N2" t="n">
-        <v>397673.3469863411</v>
+        <v>397673.3469863409</v>
       </c>
       <c r="O2" t="n">
-        <v>397673.3469863408</v>
+        <v>397673.3469863409</v>
       </c>
       <c r="P2" t="n">
-        <v>397673.3469863408</v>
+        <v>397673.3469863409</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101197.8463474378</v>
+        <v>101197.8463474379</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155188.0488107729</v>
+        <v>155188.0488107728</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>101197.8463474379</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.86133097976</v>
+        <v>28140.86133097994</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240175</v>
+        <v>68716.99883240157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26445,7 +26445,7 @@
         <v>424916.7517290888</v>
       </c>
       <c r="L4" t="n">
-        <v>424916.7517290889</v>
+        <v>424916.7517290888</v>
       </c>
       <c r="M4" t="n">
         <v>424375.1958291386</v>
@@ -26482,13 +26482,13 @@
         <v>26025.8622633483</v>
       </c>
       <c r="G5" t="n">
-        <v>36660.36444407674</v>
+        <v>36660.36444407675</v>
       </c>
       <c r="H5" t="n">
-        <v>36660.36444407672</v>
+        <v>36660.36444407675</v>
       </c>
       <c r="I5" t="n">
-        <v>36660.36444407674</v>
+        <v>36660.36444407675</v>
       </c>
       <c r="J5" t="n">
         <v>47580.58365082261</v>
@@ -26509,7 +26509,7 @@
         <v>43896.40868247331</v>
       </c>
       <c r="P5" t="n">
-        <v>43896.40868247332</v>
+        <v>43896.40868247331</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98723.35636000833</v>
+        <v>-98727.82274421358</v>
       </c>
       <c r="C6" t="n">
-        <v>-98723.35636000845</v>
+        <v>-98727.82274421358</v>
       </c>
       <c r="D6" t="n">
-        <v>-98723.35636000839</v>
+        <v>-98727.82274421376</v>
       </c>
       <c r="E6" t="n">
-        <v>-314653.3358915519</v>
+        <v>-314962.6570411473</v>
       </c>
       <c r="F6" t="n">
-        <v>-39280.28880698396</v>
+        <v>-39589.60995657992</v>
       </c>
       <c r="G6" t="n">
-        <v>-165938.3404366091</v>
+        <v>-165938.3404366089</v>
       </c>
       <c r="H6" t="n">
-        <v>-64740.49408917071</v>
+        <v>-64740.49408917108</v>
       </c>
       <c r="I6" t="n">
-        <v>-64740.49408917096</v>
+        <v>-64740.4940891709</v>
       </c>
       <c r="J6" t="n">
-        <v>-230012.0372043435</v>
+        <v>-230012.0372043433</v>
       </c>
       <c r="K6" t="n">
-        <v>-74823.98839357038</v>
+        <v>-74823.98839357044</v>
       </c>
       <c r="L6" t="n">
-        <v>-176021.8347410085</v>
+        <v>-176021.8347410084</v>
       </c>
       <c r="M6" t="n">
-        <v>-97959.91407860756</v>
+        <v>-97959.91407860779</v>
       </c>
       <c r="N6" t="n">
-        <v>-69819.05274762771</v>
+        <v>-69819.05274762782</v>
       </c>
       <c r="O6" t="n">
-        <v>-139415.3497114031</v>
+        <v>-139415.3497114028</v>
       </c>
       <c r="P6" t="n">
-        <v>-70698.35087900146</v>
+        <v>-70698.35087900133</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="I2" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="J2" t="n">
         <v>212.9171572481403</v>
@@ -26777,7 +26777,7 @@
         <v>103.8405771010907</v>
       </c>
       <c r="P3" t="n">
-        <v>103.8405771010908</v>
+        <v>103.8405771010907</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="G4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="H4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="I4" t="n">
-        <v>122.0492982736048</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="J4" t="n">
         <v>450.9395818638969</v>
@@ -26820,10 +26820,10 @@
         <v>450.9395818638968</v>
       </c>
       <c r="M4" t="n">
-        <v>328.8902835902922</v>
+        <v>328.8902835902921</v>
       </c>
       <c r="N4" t="n">
-        <v>328.8902835902922</v>
+        <v>328.8902835902921</v>
       </c>
       <c r="O4" t="n">
         <v>352.07256366516</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.41984931384314</v>
+        <v>86.41984931384295</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>126.4973079342973</v>
       </c>
       <c r="M2" t="n">
-        <v>35.1760766637247</v>
+        <v>35.17607666372493</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.92269993763091</v>
+        <v>78.92269993763065</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.8902835902921</v>
+        <v>328.8902835902922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.18228007486783</v>
+        <v>23.18228007486795</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.41984931384314</v>
+        <v>86.41984931384295</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,10 +28111,10 @@
         <v>194.3824756748547</v>
       </c>
       <c r="J11" t="n">
-        <v>75.87088762177225</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="K11" t="n">
-        <v>50.29694473531358</v>
+        <v>17.28542621929063</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28126,7 +28126,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>85.67504484008921</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>13.54892393491825</v>
@@ -28135,7 +28135,7 @@
         <v>194.3824756748547</v>
       </c>
       <c r="R11" t="n">
-        <v>194.2075003718244</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="S11" t="n">
         <v>194.3824756748547</v>
@@ -28172,7 +28172,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>37.12301680297398</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28181,7 +28181,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>130.1894292371634</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H12" t="n">
         <v>125.6800758778345</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>134.3633376148752</v>
@@ -28229,13 +28229,13 @@
         <v>194.3824756748547</v>
       </c>
       <c r="W12" t="n">
-        <v>194.3824756748547</v>
+        <v>144.6552853034069</v>
       </c>
       <c r="X12" t="n">
-        <v>95.26361616586604</v>
+        <v>95.26361616586593</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.3824756748547</v>
+        <v>109.6475199396109</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.3824756748547</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28257,22 +28257,22 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6959616282545</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7816030517371</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="I13" t="n">
-        <v>164.7082190429235</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="J13" t="n">
         <v>194.3824756748547</v>
       </c>
       <c r="K13" t="n">
-        <v>109.0294025335273</v>
+        <v>66.47076232176849</v>
       </c>
       <c r="L13" t="n">
         <v>31.43620997383529</v>
@@ -28281,16 +28281,16 @@
         <v>24.46235891800152</v>
       </c>
       <c r="N13" t="n">
-        <v>137.8328896397047</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O13" t="n">
         <v>36.79854607717668</v>
       </c>
       <c r="P13" t="n">
-        <v>179.9457505507724</v>
+        <v>154.3334694299876</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.8139378168763</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="R13" t="n">
         <v>194.3824756748547</v>
@@ -28354,22 +28354,22 @@
         <v>5.36224194615702</v>
       </c>
       <c r="L14" t="n">
-        <v>73.16318667058708</v>
+        <v>73.16318667058719</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>44.04586090844822</v>
       </c>
       <c r="O14" t="n">
-        <v>41.2267664212029</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.5982222085228</v>
+        <v>26.94962398512916</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.55297193870598</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="R14" t="n">
         <v>194.2075003718244</v>
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>54.70119612406106</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>47.64060773450294</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28448,25 +28448,25 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S15" t="n">
-        <v>80.6978303063924</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T15" t="n">
         <v>194.3824756748547</v>
       </c>
       <c r="U15" t="n">
-        <v>115.1783935072899</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="V15" t="n">
         <v>194.3824756748547</v>
       </c>
       <c r="W15" t="n">
-        <v>144.655285303407</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="X15" t="n">
         <v>194.3824756748547</v>
@@ -28482,37 +28482,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.3824756748547</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>194.3824756748547</v>
       </c>
       <c r="D16" t="n">
-        <v>194.3824756748547</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>194.3824756748547</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>194.3824756748547</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>194.3824756748547</v>
       </c>
       <c r="H16" t="n">
-        <v>194.3824756748547</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I16" t="n">
-        <v>164.7082190429235</v>
+        <v>177.3352359811422</v>
       </c>
       <c r="J16" t="n">
-        <v>194.3824756748547</v>
+        <v>119.8993073508208</v>
       </c>
       <c r="K16" t="n">
         <v>66.47076232176849</v>
       </c>
       <c r="L16" t="n">
-        <v>78.51901201702114</v>
+        <v>153.48550824744</v>
       </c>
       <c r="M16" t="n">
         <v>24.46235891800152</v>
@@ -28524,10 +28524,10 @@
         <v>36.79854607717668</v>
       </c>
       <c r="P16" t="n">
-        <v>57.89645227716784</v>
+        <v>179.9457505507725</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.8139378168763</v>
+        <v>194.3824756748547</v>
       </c>
       <c r="R16" t="n">
         <v>194.3824756748547</v>
@@ -28609,16 +28609,16 @@
         <v>88.55297193870598</v>
       </c>
       <c r="R17" t="n">
-        <v>238.5785685031885</v>
+        <v>316.2567986454291</v>
       </c>
       <c r="S17" t="n">
-        <v>320.879783609152</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T17" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="U17" t="n">
-        <v>250.149683058712</v>
+        <v>266.0787615091373</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -28652,19 +28652,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>36.77414084632377</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>41.23784127212502</v>
+        <v>84.42361312875919</v>
       </c>
       <c r="H18" t="n">
-        <v>125.6800758778345</v>
+        <v>3.6307776042298</v>
       </c>
       <c r="I18" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.3633376148752</v>
@@ -28700,10 +28700,10 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V18" t="n">
-        <v>118.5996226417977</v>
+        <v>118.5996226417976</v>
       </c>
       <c r="W18" t="n">
-        <v>144.655285303407</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="C20" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="D20" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="E20" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="F20" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="G20" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5960845356529</v>
+        <v>320.879783609152</v>
       </c>
       <c r="J20" t="n">
         <v>75.87088762177225</v>
       </c>
       <c r="K20" t="n">
-        <v>72.61051811974676</v>
+        <v>5.36224194615702</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28843,31 +28843,31 @@
         <v>13.54892393491825</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55297193870598</v>
+        <v>122.6592259569972</v>
       </c>
       <c r="R20" t="n">
-        <v>194.2075003718244</v>
+        <v>316.256798645429</v>
       </c>
       <c r="S20" t="n">
         <v>227.2724750164867</v>
       </c>
       <c r="T20" t="n">
-        <v>320.8797836091519</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U20" t="n">
-        <v>320.8797836091519</v>
+        <v>250.149683058712</v>
       </c>
       <c r="V20" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="X20" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
     </row>
     <row r="21">
@@ -28880,19 +28880,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>65.46885325076124</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>37.12301680297386</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>36.77414084632377</v>
+        <v>36.77414084632366</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7388631915159</v>
+        <v>99.30717242864279</v>
       </c>
       <c r="H21" t="n">
         <v>125.6800758778345</v>
@@ -28901,7 +28901,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.136586121265633</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.3633376148752</v>
@@ -28937,16 +28937,16 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V21" t="n">
-        <v>118.5996226417977</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>109.8118925200797</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>101.3349878604211</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="C23" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="D23" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="E23" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="F23" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="G23" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="I23" t="n">
-        <v>256.5251629860786</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="J23" t="n">
-        <v>197.920185895377</v>
+        <v>75.87088762177225</v>
       </c>
       <c r="K23" t="n">
-        <v>5.36224194615702</v>
+        <v>77.46408416844562</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>194.2075003718244</v>
       </c>
       <c r="S23" t="n">
-        <v>227.2724750164867</v>
+        <v>320.879783609152</v>
       </c>
       <c r="T23" t="n">
-        <v>320.8797836091519</v>
+        <v>222.4189089677869</v>
       </c>
       <c r="U23" t="n">
-        <v>250.149683058712</v>
+        <v>320.879783609152</v>
       </c>
       <c r="V23" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="X23" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.8797836091519</v>
+        <v>320.879783609152</v>
       </c>
     </row>
     <row r="24">
@@ -29117,28 +29117,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>65.46885325076124</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>49.77827356619491</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>36.77414084632358</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>26.68956491791116</v>
+        <v>26.68956491791124</v>
       </c>
       <c r="H24" t="n">
         <v>125.6800758778345</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J24" t="n">
-        <v>51.59746208958229</v>
+        <v>51.93274503525224</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29177,13 +29177,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>159.2035616576206</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>101.3349878604209</v>
       </c>
     </row>
     <row r="25">
@@ -29305,7 +29305,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="M26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481407</v>
       </c>
       <c r="N26" t="n">
         <v>212.9171572481403</v>
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29366,13 +29366,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>37.83816537420537</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H27" t="n">
         <v>125.6800758778345</v>
       </c>
       <c r="I27" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>51.93274503525224</v>
@@ -29399,7 +29399,7 @@
         <v>6.136586121265633</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3633376148752</v>
+        <v>7.62272654518199</v>
       </c>
       <c r="S27" t="n">
         <v>191.4841495043256</v>
@@ -29417,7 +29417,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="X27" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>212.9171572481403</v>
@@ -29430,25 +29430,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>212.9171572481403</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>192.2486804661655</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="G28" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="H28" t="n">
-        <v>212.9171572481403</v>
+        <v>165.7816030517371</v>
       </c>
       <c r="I28" t="n">
         <v>164.7082190429235</v>
@@ -29463,7 +29463,7 @@
         <v>31.43620997383529</v>
       </c>
       <c r="M28" t="n">
-        <v>134.3238894194897</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N28" t="n">
         <v>15.78359136610012</v>
@@ -29603,16 +29603,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>65.9115947497103</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>6.136586121265633</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.4841495043256</v>
@@ -29648,16 +29648,16 @@
         <v>212.9171572481403</v>
       </c>
       <c r="V30" t="n">
+        <v>84.95447730420858</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>212.9171572481403</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Y30" t="n">
         <v>212.9171572481403</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>186.7444070897652</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29676,7 +29676,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>212.9171572481403</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -29694,7 +29694,7 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K31" t="n">
-        <v>212.9171572481403</v>
+        <v>66.47076232176849</v>
       </c>
       <c r="L31" t="n">
         <v>31.43620997383529</v>
@@ -29703,10 +29703,10 @@
         <v>24.46235891800152</v>
       </c>
       <c r="N31" t="n">
-        <v>15.78359136610012</v>
+        <v>76.18349709608603</v>
       </c>
       <c r="O31" t="n">
-        <v>36.79854607717668</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="P31" t="n">
         <v>57.89645227716784</v>
@@ -29715,7 +29715,7 @@
         <v>126.8139378168763</v>
       </c>
       <c r="R31" t="n">
-        <v>212.9171572481403</v>
+        <v>203.2135377342752</v>
       </c>
       <c r="S31" t="n">
         <v>212.9171572481403</v>
@@ -29770,13 +29770,13 @@
         <v>212.9171572481403</v>
       </c>
       <c r="J32" t="n">
-        <v>212.9171572481398</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="K32" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="L32" t="n">
-        <v>212.9171572481403</v>
+        <v>212.9171572481402</v>
       </c>
       <c r="M32" t="n">
         <v>212.9171572481403</v>
@@ -29831,10 +29831,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29843,10 +29843,10 @@
         <v>148.7388631915159</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I33" t="n">
-        <v>70.00396668815367</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J33" t="n">
         <v>51.93274503525224</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S33" t="n">
         <v>191.4841495043256</v>
@@ -29882,13 +29882,13 @@
         <v>212.9171572481403</v>
       </c>
       <c r="U33" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>212.9171572481403</v>
+        <v>4.40981292850023</v>
       </c>
       <c r="X33" t="n">
         <v>212.9171572481403</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>212.9171572481403</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29913,7 +29913,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>212.9171572481403</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -29922,16 +29922,16 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7816030517371</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="I34" t="n">
-        <v>164.7082190429235</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="J34" t="n">
         <v>119.8993073508208</v>
       </c>
       <c r="K34" t="n">
-        <v>66.47076232176849</v>
+        <v>207.6447868210981</v>
       </c>
       <c r="L34" t="n">
         <v>31.43620997383529</v>
@@ -29940,7 +29940,7 @@
         <v>24.46235891800152</v>
       </c>
       <c r="N34" t="n">
-        <v>145.7608556479616</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O34" t="n">
         <v>36.79854607717668</v>
@@ -30010,34 +30010,34 @@
         <v>248.0932339118652</v>
       </c>
       <c r="K35" t="n">
+        <v>138.5301041425807</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>248.0932339118652</v>
-      </c>
-      <c r="L35" t="n">
-        <v>129.5371906879943</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>248.0932339118652</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>248.0932339118652</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.55297193870598</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="R35" t="n">
-        <v>194.2075003718244</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="S35" t="n">
         <v>248.0932339118652</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4189089677869</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="U35" t="n">
         <v>248.0932339118652</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7388631915159</v>
@@ -30110,7 +30110,7 @@
         <v>6.136586121265633</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S36" t="n">
         <v>191.4841495043256</v>
@@ -30122,16 +30122,16 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>190.9858106864441</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>26.21075206637488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30147,7 +30147,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>229.6439640866401</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30165,7 +30165,7 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J37" t="n">
-        <v>119.8993073508208</v>
+        <v>204.36062118675</v>
       </c>
       <c r="K37" t="n">
         <v>66.47076232176849</v>
@@ -30247,13 +30247,13 @@
         <v>248.0932339118652</v>
       </c>
       <c r="K38" t="n">
-        <v>248.0932339118652</v>
+        <v>5.36224194615702</v>
       </c>
       <c r="L38" t="n">
-        <v>139.5748305186303</v>
+        <v>122.3847431316814</v>
       </c>
       <c r="M38" t="n">
-        <v>245.3274290416892</v>
+        <v>245.3274290416891</v>
       </c>
       <c r="N38" t="n">
         <v>248.0932339118652</v>
@@ -30265,16 +30265,16 @@
         <v>13.54892393491825</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.55297193870598</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="R38" t="n">
-        <v>194.2075003718244</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="S38" t="n">
-        <v>227.2724750164867</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4189089677869</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="U38" t="n">
         <v>248.0932339118652</v>
@@ -30305,13 +30305,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7388631915159</v>
@@ -30323,7 +30323,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>6.136586121265633</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4841495043256</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9477822055827</v>
@@ -30359,16 +30359,16 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>248.0932339118652</v>
+        <v>46.24336047192708</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>56.57954925148658</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30387,7 +30387,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>213.3983828298564</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30426,13 +30426,13 @@
         <v>126.8139378168763</v>
       </c>
       <c r="R40" t="n">
-        <v>232.3706490974924</v>
+        <v>203.2135377342752</v>
       </c>
       <c r="S40" t="n">
-        <v>235.3541616935673</v>
+        <v>248.0932339118652</v>
       </c>
       <c r="T40" t="n">
-        <v>248.0932339118652</v>
+        <v>223.7409925368498</v>
       </c>
       <c r="U40" t="n">
         <v>248.0932339118652</v>
@@ -30447,7 +30447,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.0932339118652</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -30487,19 +30487,19 @@
         <v>240.5960845356529</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>49.7036771352948</v>
+      </c>
+      <c r="O41" t="n">
         <v>240.5960845356529</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="O41" t="n">
-        <v>67.65553828740872</v>
-      </c>
-      <c r="P41" t="n">
-        <v>13.54892393491825</v>
       </c>
       <c r="Q41" t="n">
         <v>240.5960845356529</v>
@@ -30508,10 +30508,10 @@
         <v>240.5960845356529</v>
       </c>
       <c r="S41" t="n">
-        <v>227.2724750164867</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4189089677869</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="U41" t="n">
         <v>240.5960845356529</v>
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>33.13348657590504</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -30551,13 +30551,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>125.6800758778345</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>51.93274503525224</v>
@@ -30584,7 +30584,7 @@
         <v>6.136586121265633</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3633376148752</v>
+        <v>41.92098203235842</v>
       </c>
       <c r="S42" t="n">
         <v>191.4841495043256</v>
@@ -30599,13 +30599,13 @@
         <v>240.5960845356529</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30618,13 +30618,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>240.5960845356529</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>155.0467646598584</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
@@ -30654,7 +30654,7 @@
         <v>15.78359136610012</v>
       </c>
       <c r="O43" t="n">
-        <v>36.79854607717668</v>
+        <v>141.1631650872938</v>
       </c>
       <c r="P43" t="n">
         <v>57.89645227716784</v>
@@ -30669,7 +30669,7 @@
         <v>235.3541616935673</v>
       </c>
       <c r="T43" t="n">
-        <v>240.5960845356529</v>
+        <v>223.7409925368498</v>
       </c>
       <c r="U43" t="n">
         <v>240.5960845356529</v>
@@ -30724,31 +30724,31 @@
         <v>240.5960845356529</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="M44" t="n">
+        <v>49.70367713529477</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="N44" t="n">
-        <v>240.5960845356529</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>127.5930463861554</v>
       </c>
       <c r="Q44" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="R44" t="n">
-        <v>194.2075003718244</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2724750164867</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4189089677869</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="U44" t="n">
         <v>240.5960845356529</v>
@@ -30776,7 +30776,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>157.8226550165807</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30788,16 +30788,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93274503525224</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265626</v>
+        <v>6.136586121265633</v>
       </c>
       <c r="R45" t="n">
         <v>134.3633376148752</v>
@@ -30833,7 +30833,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="W45" t="n">
         <v>240.5960845356529</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>163.2258420348858</v>
       </c>
     </row>
     <row r="46">
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>240.5960845356529</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30879,16 +30879,16 @@
         <v>119.8993073508208</v>
       </c>
       <c r="K46" t="n">
-        <v>66.47076232176848</v>
+        <v>66.47076232176849</v>
       </c>
       <c r="L46" t="n">
-        <v>31.43620997383528</v>
+        <v>31.43620997383529</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46235891800151</v>
+        <v>24.46235891800152</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78359136610011</v>
+        <v>15.78359136610012</v>
       </c>
       <c r="O46" t="n">
         <v>36.79854607717668</v>
@@ -30897,7 +30897,7 @@
         <v>57.89645227716784</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.8139378168763</v>
+        <v>231.1785568269934</v>
       </c>
       <c r="R46" t="n">
         <v>203.2135377342752</v>
@@ -30906,7 +30906,7 @@
         <v>235.3541616935673</v>
       </c>
       <c r="T46" t="n">
-        <v>229.185668223539</v>
+        <v>223.7409925368498</v>
       </c>
       <c r="U46" t="n">
         <v>240.5960845356529</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4174495561852892</v>
+        <v>0.4174495561852891</v>
       </c>
       <c r="H44" t="n">
-        <v>4.275205267282594</v>
+        <v>4.275205267282592</v>
       </c>
       <c r="I44" t="n">
-        <v>16.09372401483338</v>
+        <v>16.09372401483337</v>
       </c>
       <c r="J44" t="n">
-        <v>35.43050926928122</v>
+        <v>35.43050926928121</v>
       </c>
       <c r="K44" t="n">
-        <v>53.10114898260452</v>
+        <v>53.10114898260451</v>
       </c>
       <c r="L44" t="n">
-        <v>65.87667083771008</v>
+        <v>65.87667083771005</v>
       </c>
       <c r="M44" t="n">
-        <v>73.30048938252021</v>
+        <v>73.30048938252018</v>
       </c>
       <c r="N44" t="n">
-        <v>74.48656793403167</v>
+        <v>74.48656793403165</v>
       </c>
       <c r="O44" t="n">
-        <v>70.33555390971419</v>
+        <v>70.33555390971418</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02976799138986</v>
+        <v>60.02976799138985</v>
       </c>
       <c r="Q44" t="n">
         <v>45.07985576050417</v>
@@ -34393,13 +34393,13 @@
         <v>26.22261568372419</v>
       </c>
       <c r="S44" t="n">
-        <v>9.512631761572287</v>
+        <v>9.512631761572283</v>
       </c>
       <c r="T44" t="n">
         <v>1.827385432201104</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339596449482313</v>
+        <v>0.03339596449482312</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2233552035759311</v>
+        <v>0.223355203575931</v>
       </c>
       <c r="H45" t="n">
-        <v>2.157141045062282</v>
+        <v>2.157141045062281</v>
       </c>
       <c r="I45" t="n">
-        <v>7.690080473995874</v>
+        <v>7.690080473995871</v>
       </c>
       <c r="J45" t="n">
         <v>21.10216859749619</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06696723708357</v>
+        <v>36.06696723708356</v>
       </c>
       <c r="L45" t="n">
         <v>48.49648839046696</v>
       </c>
       <c r="M45" t="n">
-        <v>56.59311452009445</v>
+        <v>56.59311452009444</v>
       </c>
       <c r="N45" t="n">
-        <v>58.09096586337341</v>
+        <v>58.09096586337339</v>
       </c>
       <c r="O45" t="n">
-        <v>53.14188477361198</v>
+        <v>53.14188477361197</v>
       </c>
       <c r="P45" t="n">
-        <v>42.65104760214425</v>
+        <v>42.65104760214423</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.51109581085043</v>
+        <v>28.51109581085042</v>
       </c>
       <c r="R45" t="n">
         <v>13.86761518342492</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148724943614331</v>
+        <v>4.148724943614329</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9002782109047394</v>
+        <v>0.9002782109047391</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01469442128789021</v>
+        <v>0.0146944212878902</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>0.1872534996904915</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664853842702735</v>
+        <v>1.664853842702734</v>
       </c>
       <c r="I46" t="n">
-        <v>5.631223427055874</v>
+        <v>5.631223427055872</v>
       </c>
       <c r="J46" t="n">
-        <v>13.23882242811775</v>
+        <v>13.23882242811774</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75545205494983</v>
+        <v>21.75545205494982</v>
       </c>
       <c r="L46" t="n">
-        <v>27.83948849034817</v>
+        <v>27.83948849034816</v>
       </c>
       <c r="M46" t="n">
-        <v>29.35283722875586</v>
+        <v>29.35283722875585</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65489236627315</v>
+        <v>28.65489236627313</v>
       </c>
       <c r="O46" t="n">
         <v>26.46743102897966</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64745963529362</v>
+        <v>22.64745963529361</v>
       </c>
       <c r="Q46" t="n">
         <v>15.6799271422647</v>
       </c>
       <c r="R46" t="n">
-        <v>8.419598267901552</v>
+        <v>8.41959826790155</v>
       </c>
       <c r="S46" t="n">
-        <v>3.263317808242474</v>
+        <v>3.263317808242473</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8000831350411908</v>
+        <v>0.8000831350411906</v>
       </c>
       <c r="U46" t="n">
         <v>0.010213827255845</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>118.5115880530824</v>
       </c>
       <c r="K11" t="n">
-        <v>44.93470278915656</v>
+        <v>11.92318427313361</v>
       </c>
       <c r="L11" t="n">
         <v>48.88611160301748</v>
@@ -35422,16 +35422,16 @@
         <v>78.00343736515646</v>
       </c>
       <c r="O11" t="n">
-        <v>122.0492982736046</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.8295037361488</v>
+        <v>105.8295037361487</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.1749753030303083</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>33.83647831747506</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L12" t="n">
         <v>119.764688815662</v>
       </c>
       <c r="M12" t="n">
-        <v>122.0492982736046</v>
+        <v>116.6118913185634</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P12" t="n">
         <v>85.56614463534062</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.76555500988664</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35553,22 +35553,22 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>55.45559345640802</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.6865140466002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>28.60087262311753</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>29.67425663193113</v>
       </c>
       <c r="J13" t="n">
-        <v>74.48316832403395</v>
+        <v>74.4831683240339</v>
       </c>
       <c r="K13" t="n">
-        <v>42.5586402117588</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35577,16 +35577,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>122.0492982736046</v>
+        <v>96.43701715281972</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>67.5685378579784</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="M14" t="n">
         <v>83.56285454860294</v>
       </c>
       <c r="N14" t="n">
-        <v>78.00343736515646</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O14" t="n">
-        <v>77.60101985471825</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P14" t="n">
-        <v>122.0492982736046</v>
+        <v>13.40070005021092</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>105.8295037361487</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>39.27388527251657</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>119.764688815662</v>
       </c>
       <c r="M15" t="n">
-        <v>114.3272818606205</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N15" t="n">
-        <v>122.0492982736046</v>
+        <v>116.6118913185634</v>
       </c>
       <c r="O15" t="n">
-        <v>122.0492982736046</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>85.56614463534062</v>
@@ -35778,37 +35778,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.76555500988664</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>27.92529470288238</v>
+        <v>27.92529470288233</v>
       </c>
       <c r="D16" t="n">
-        <v>49.19982542414402</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70633446262974</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>55.45559345640808</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>25.68651404660026</v>
+        <v>25.6865140466002</v>
       </c>
       <c r="H16" t="n">
-        <v>28.60087262311759</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>12.62701693821864</v>
       </c>
       <c r="J16" t="n">
-        <v>74.48316832403395</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>47.08280204318586</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35820,10 +35820,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>67.5685378579784</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,16 +35905,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>44.37106813136416</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="S17" t="n">
-        <v>93.60730859266529</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>98.46087464136507</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>15.92907845042531</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>31.55186885953248</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>77.84412822235664</v>
       </c>
       <c r="M18" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N18" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O18" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P18" t="n">
-        <v>85.56614463534062</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>80.28369907349908</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>67.24827617358973</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>48.88611160301748</v>
@@ -36139,22 +36139,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>34.10625401829122</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>98.46087464136495</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>70.73010055043993</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.27388527251657</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>119.764688815662</v>
+        <v>31.55186885953259</v>
       </c>
       <c r="M21" t="n">
-        <v>80.1287376802991</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N21" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O21" t="n">
-        <v>122.0492982736046</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>85.56614463534062</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,13 +36352,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>15.92907845042558</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>122.0492982736048</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>72.1018422222886</v>
       </c>
       <c r="L23" t="n">
         <v>48.88611160301748</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>93.60730859266529</v>
       </c>
       <c r="T23" t="n">
-        <v>98.46087464136495</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>70.73010055044004</v>
       </c>
       <c r="V23" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>33.83647831747538</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>119.764688815662</v>
+        <v>31.55186885953259</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="N24" t="n">
-        <v>122.0492982736048</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="O24" t="n">
-        <v>122.0492982736048</v>
+        <v>122.0492982736047</v>
       </c>
       <c r="P24" t="n">
         <v>85.56614463534062</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0462696263681</v>
+        <v>137.046269626368</v>
       </c>
       <c r="K26" t="n">
         <v>207.5549153019833</v>
@@ -36601,13 +36601,13 @@
         <v>261.8032688511578</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4800117967433</v>
+        <v>296.4800117967436</v>
       </c>
       <c r="N26" t="n">
         <v>290.9205946132968</v>
       </c>
       <c r="O26" t="n">
-        <v>249.2914106816557</v>
+        <v>249.2914106816556</v>
       </c>
       <c r="P26" t="n">
         <v>199.368233313222</v>
@@ -36616,7 +36616,7 @@
         <v>124.3641853094343</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631593</v>
+        <v>18.70965687631592</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36726,25 +36726,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.30023658317222</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.73450699742958</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>50.57253925394048</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>73.99027502969363</v>
       </c>
       <c r="G28" t="n">
-        <v>44.22119561988584</v>
+        <v>44.22119561988581</v>
       </c>
       <c r="H28" t="n">
-        <v>47.13555419640317</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>109.8615305014881</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0462696263681</v>
+        <v>137.046269626368</v>
       </c>
       <c r="K29" t="n">
         <v>207.5549153019833</v>
@@ -36838,13 +36838,13 @@
         <v>261.8032688511578</v>
       </c>
       <c r="M29" t="n">
-        <v>296.4800117967433</v>
+        <v>296.4800117967432</v>
       </c>
       <c r="N29" t="n">
         <v>290.9205946132968</v>
       </c>
       <c r="O29" t="n">
-        <v>249.2914106816557</v>
+        <v>249.2914106816556</v>
       </c>
       <c r="P29" t="n">
         <v>199.368233313222</v>
@@ -36853,7 +36853,7 @@
         <v>124.3641853094343</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70965687631593</v>
+        <v>18.7096568763159</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.127486424797105</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.24101603591532</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>146.4463949263718</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>60.3999057299859</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.1186111709636</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.703619513865094</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0462696263676</v>
+        <v>137.046269626368</v>
       </c>
       <c r="K32" t="n">
         <v>207.5549153019833</v>
       </c>
       <c r="L32" t="n">
-        <v>261.8032688511578</v>
+        <v>261.8032688511577</v>
       </c>
       <c r="M32" t="n">
-        <v>296.4800117967433</v>
+        <v>296.4800117967432</v>
       </c>
       <c r="N32" t="n">
         <v>290.9205946132968</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2914106816557</v>
+        <v>249.2914106816556</v>
       </c>
       <c r="P32" t="n">
-        <v>199.3682333132221</v>
+        <v>199.368233313222</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3641853094344</v>
+        <v>124.3641853094343</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70965687631598</v>
+        <v>18.70965687631592</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.30023658317225</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37209,7 +37209,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.24101603591535</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37218,16 +37218,16 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.13555419640314</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.20893820521674</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>141.1740244993296</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>129.9772642818615</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.497149376212221</v>
+        <v>7.497149376212278</v>
       </c>
       <c r="J35" t="n">
         <v>172.2223462900929</v>
       </c>
       <c r="K35" t="n">
-        <v>242.7309919657081</v>
+        <v>133.1678621964237</v>
       </c>
       <c r="L35" t="n">
-        <v>178.4233022910118</v>
+        <v>48.88611160301748</v>
       </c>
       <c r="M35" t="n">
         <v>83.56285454860294</v>
       </c>
       <c r="N35" t="n">
-        <v>326.0966712770216</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O35" t="n">
-        <v>36.37425343351535</v>
+        <v>284.4674873453806</v>
       </c>
       <c r="P35" t="n">
-        <v>234.5443099769469</v>
+        <v>234.544309976947</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>159.5402619731592</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>53.88573354004085</v>
       </c>
       <c r="S35" t="n">
-        <v>20.82075889537844</v>
+        <v>20.82075889537849</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>25.67432494407827</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>84.46131383592936</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>84.46131383592925</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37537,19 +37537,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.497149376212221</v>
+        <v>7.497149376212278</v>
       </c>
       <c r="J38" t="n">
         <v>172.2223462900929</v>
       </c>
       <c r="K38" t="n">
-        <v>242.7309919657081</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>188.4609421216478</v>
+        <v>171.2708547346989</v>
       </c>
       <c r="M38" t="n">
-        <v>328.8902835902922</v>
+        <v>328.8902835902921</v>
       </c>
       <c r="N38" t="n">
         <v>326.0966712770216</v>
@@ -37561,16 +37561,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>159.5402619731592</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>53.88573354004085</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>20.82075889537849</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>25.67432494407827</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>71.72224161763137</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37722,13 +37722,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>29.15711136321723</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>12.73907221829787</v>
       </c>
       <c r="T40" t="n">
-        <v>24.3522413750154</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.95196109769674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37783,19 +37783,19 @@
         <v>235.2338425894959</v>
       </c>
       <c r="L41" t="n">
-        <v>289.4821961386704</v>
+        <v>48.88611160301748</v>
       </c>
       <c r="M41" t="n">
         <v>83.56285454860294</v>
       </c>
       <c r="N41" t="n">
-        <v>318.5995219008093</v>
+        <v>127.7071145004513</v>
       </c>
       <c r="O41" t="n">
-        <v>104.0297917209241</v>
+        <v>276.9703379691683</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>227.0471606007347</v>
       </c>
       <c r="Q41" t="n">
         <v>152.0431125969469</v>
@@ -37804,10 +37804,10 @@
         <v>46.38858416382855</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.3236095191662</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.17717556786598</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37914,13 +37914,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>74.13890356368057</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>13.37062344763343</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>104.3646190101172</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>16.85509199880316</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7251969138807</v>
+        <v>164.7251969138806</v>
       </c>
       <c r="K44" t="n">
         <v>235.2338425894959</v>
       </c>
       <c r="L44" t="n">
-        <v>48.88611160301751</v>
+        <v>289.4821961386704</v>
       </c>
       <c r="M44" t="n">
-        <v>324.1589390842559</v>
+        <v>133.2665316838977</v>
       </c>
       <c r="N44" t="n">
-        <v>318.5995219008094</v>
+        <v>78.00343736515646</v>
       </c>
       <c r="O44" t="n">
-        <v>36.37425343351536</v>
+        <v>36.37425343351535</v>
       </c>
       <c r="P44" t="n">
-        <v>114.0441224512371</v>
+        <v>227.0471606007347</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.043112596947</v>
+        <v>152.0431125969469</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.38858416382855</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.3236095191662</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.17717556786598</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.27388527251658</v>
+        <v>39.27388527251657</v>
       </c>
       <c r="L45" t="n">
         <v>119.764688815662</v>
@@ -38111,7 +38111,7 @@
         <v>134.3972494427105</v>
       </c>
       <c r="P45" t="n">
-        <v>85.56614463534063</v>
+        <v>85.56614463534062</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>98.91994332342793</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>104.3646190101172</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>5.444675686689235</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
